--- a/database/industries/siman/silam/product/monthly.xlsx
+++ b/database/industries/siman/silam/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\silam\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6597AE40-9487-4210-874B-26FBC0838BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF83FD7F-31BB-473B-B13D-4E3D3C1F5A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="85">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 10 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/09</t>
   </si>
   <si>
     <t>کلینکر</t>
@@ -1450,8 +1450,8 @@
       <c r="J11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>57</v>
+      <c r="K11" s="11">
+        <v>0</v>
       </c>
       <c r="L11" s="11">
         <v>0</v>
@@ -1477,8 +1477,8 @@
       <c r="S11" s="11">
         <v>0</v>
       </c>
-      <c r="T11" s="11">
-        <v>0</v>
+      <c r="T11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="U11" s="11" t="s">
         <v>57</v>
@@ -1546,41 +1546,41 @@
       <c r="AP11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR11" s="11">
+      <c r="AQ11" s="11">
         <v>79000</v>
       </c>
-      <c r="AS11" s="11" t="s">
-        <v>57</v>
+      <c r="AR11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS11" s="11">
+        <v>45195</v>
       </c>
       <c r="AT11" s="11">
-        <v>45195</v>
+        <v>104365</v>
       </c>
       <c r="AU11" s="11">
-        <v>104365</v>
+        <v>120025</v>
       </c>
       <c r="AV11" s="11">
-        <v>120025</v>
+        <v>103100</v>
       </c>
       <c r="AW11" s="11">
-        <v>103100</v>
+        <v>81275</v>
       </c>
       <c r="AX11" s="11">
-        <v>81275</v>
+        <v>88915</v>
       </c>
       <c r="AY11" s="11">
-        <v>88915</v>
+        <v>41745</v>
       </c>
       <c r="AZ11" s="11">
-        <v>41745</v>
+        <v>127850</v>
       </c>
       <c r="BA11" s="11">
-        <v>127850</v>
+        <v>114330</v>
       </c>
       <c r="BB11" s="11">
-        <v>114330</v>
+        <v>112695</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1705,20 +1705,20 @@
       <c r="AP12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR12" s="13">
+      <c r="AQ12" s="13">
         <v>322</v>
       </c>
-      <c r="AS12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="13" t="s">
-        <v>57</v>
+      <c r="AR12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU12" s="13">
+        <v>0</v>
       </c>
       <c r="AV12" s="13">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="AZ12" s="13">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="BA12" s="13">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="13">
         <v>0</v>
@@ -1831,41 +1831,41 @@
       <c r="AE13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF13" s="11" t="s">
-        <v>57</v>
+      <c r="AF13" s="11">
+        <v>18072</v>
       </c>
       <c r="AG13" s="11">
-        <v>18072</v>
+        <v>21941</v>
       </c>
       <c r="AH13" s="11">
-        <v>21941</v>
+        <v>5046</v>
       </c>
       <c r="AI13" s="11">
-        <v>5046</v>
+        <v>119840</v>
       </c>
       <c r="AJ13" s="11">
-        <v>119840</v>
+        <v>98295</v>
       </c>
       <c r="AK13" s="11">
-        <v>98295</v>
+        <v>59755</v>
       </c>
       <c r="AL13" s="11">
-        <v>59755</v>
+        <v>63695</v>
       </c>
       <c r="AM13" s="11">
-        <v>63695</v>
+        <v>59075</v>
       </c>
       <c r="AN13" s="11">
-        <v>59075</v>
+        <v>98000</v>
       </c>
       <c r="AO13" s="11">
-        <v>98000</v>
+        <v>113705</v>
       </c>
       <c r="AP13" s="11">
-        <v>113705</v>
-      </c>
-      <c r="AQ13" s="11">
         <v>74570</v>
+      </c>
+      <c r="AQ13" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR13" s="11" t="s">
         <v>57</v>
@@ -1918,45 +1918,45 @@
       <c r="G14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>57</v>
+      <c r="H14" s="13">
+        <v>39808</v>
       </c>
       <c r="I14" s="13">
-        <v>39808</v>
+        <v>21402</v>
       </c>
       <c r="J14" s="13">
-        <v>21402</v>
+        <v>6713</v>
       </c>
       <c r="K14" s="13">
-        <v>6713</v>
+        <v>45023</v>
       </c>
       <c r="L14" s="13">
-        <v>45023</v>
+        <v>32382</v>
       </c>
       <c r="M14" s="13">
-        <v>32382</v>
+        <v>23356</v>
       </c>
       <c r="N14" s="13">
-        <v>23356</v>
+        <v>8605</v>
       </c>
       <c r="O14" s="13">
-        <v>8605</v>
+        <v>25302</v>
       </c>
       <c r="P14" s="13">
-        <v>25302</v>
+        <v>13253</v>
       </c>
       <c r="Q14" s="13">
-        <v>13253</v>
+        <v>8484</v>
       </c>
       <c r="R14" s="13">
-        <v>8484</v>
+        <v>11242</v>
       </c>
       <c r="S14" s="13">
-        <v>11242</v>
-      </c>
-      <c r="T14" s="13">
         <v>8319</v>
       </c>
+      <c r="T14" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="U14" s="13" t="s">
         <v>57</v>
       </c>
@@ -1990,8 +1990,8 @@
       <c r="AE14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF14" s="13" t="s">
-        <v>57</v>
+      <c r="AF14" s="13">
+        <v>0</v>
       </c>
       <c r="AG14" s="13">
         <v>0</v>
@@ -2023,8 +2023,8 @@
       <c r="AP14" s="13">
         <v>0</v>
       </c>
-      <c r="AQ14" s="13">
-        <v>0</v>
+      <c r="AQ14" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AR14" s="13" t="s">
         <v>57</v>
@@ -2113,77 +2113,77 @@
       <c r="S15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T15" s="11" t="s">
-        <v>57</v>
+      <c r="T15" s="11">
+        <v>37998</v>
       </c>
       <c r="U15" s="11">
-        <v>37998</v>
+        <v>52835</v>
       </c>
       <c r="V15" s="11">
-        <v>52835</v>
+        <v>42447</v>
       </c>
       <c r="W15" s="11">
-        <v>42447</v>
+        <v>36851</v>
       </c>
       <c r="X15" s="11">
-        <v>36851</v>
+        <v>85350</v>
       </c>
       <c r="Y15" s="11">
-        <v>85350</v>
+        <v>73012</v>
       </c>
       <c r="Z15" s="11">
-        <v>73012</v>
+        <v>50078</v>
       </c>
       <c r="AA15" s="11">
-        <v>50078</v>
+        <v>31619</v>
       </c>
       <c r="AB15" s="11">
-        <v>31619</v>
+        <v>59745</v>
       </c>
       <c r="AC15" s="11">
-        <v>59745</v>
+        <v>51000</v>
       </c>
       <c r="AD15" s="11">
-        <v>51000</v>
+        <v>53800</v>
       </c>
       <c r="AE15" s="11">
-        <v>53800</v>
+        <v>45080</v>
       </c>
       <c r="AF15" s="11">
-        <v>45080</v>
+        <v>68090</v>
       </c>
       <c r="AG15" s="11">
-        <v>68090</v>
+        <v>76516</v>
       </c>
       <c r="AH15" s="11">
-        <v>76516</v>
+        <v>49265</v>
       </c>
       <c r="AI15" s="11">
-        <v>49265</v>
+        <v>84410</v>
       </c>
       <c r="AJ15" s="11">
-        <v>84410</v>
+        <v>60140</v>
       </c>
       <c r="AK15" s="11">
-        <v>60140</v>
+        <v>56825</v>
       </c>
       <c r="AL15" s="11">
-        <v>56825</v>
+        <v>68280</v>
       </c>
       <c r="AM15" s="11">
-        <v>68280</v>
+        <v>59821</v>
       </c>
       <c r="AN15" s="11">
-        <v>59821</v>
+        <v>31111</v>
       </c>
       <c r="AO15" s="11">
-        <v>31111</v>
+        <v>16931</v>
       </c>
       <c r="AP15" s="11">
-        <v>16931</v>
-      </c>
-      <c r="AQ15" s="11">
         <v>2097</v>
+      </c>
+      <c r="AQ15" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR15" s="11" t="s">
         <v>57</v>
@@ -2236,45 +2236,45 @@
       <c r="G16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>57</v>
+      <c r="H16" s="13">
+        <v>37516</v>
       </c>
       <c r="I16" s="13">
-        <v>37516</v>
+        <v>51668</v>
       </c>
       <c r="J16" s="13">
-        <v>51668</v>
+        <v>38684</v>
       </c>
       <c r="K16" s="13">
-        <v>38684</v>
+        <v>51374</v>
       </c>
       <c r="L16" s="13">
-        <v>51374</v>
+        <v>51316</v>
       </c>
       <c r="M16" s="13">
-        <v>51316</v>
+        <v>58818</v>
       </c>
       <c r="N16" s="13">
-        <v>58818</v>
+        <v>38093</v>
       </c>
       <c r="O16" s="13">
-        <v>38093</v>
+        <v>54136</v>
       </c>
       <c r="P16" s="13">
-        <v>54136</v>
+        <v>38471</v>
       </c>
       <c r="Q16" s="13">
-        <v>38471</v>
+        <v>56777</v>
       </c>
       <c r="R16" s="13">
-        <v>56777</v>
+        <v>48983</v>
       </c>
       <c r="S16" s="13">
-        <v>48983</v>
-      </c>
-      <c r="T16" s="13">
         <v>41610</v>
       </c>
+      <c r="T16" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="U16" s="13" t="s">
         <v>57</v>
       </c>
@@ -2344,11 +2344,11 @@
       <c r="AQ16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS16" s="13">
-        <v>0</v>
+      <c r="AR16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT16" s="13" t="s">
         <v>57</v>
@@ -2387,16 +2387,16 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>68993</v>
+        <v>33896</v>
       </c>
       <c r="F17" s="11">
-        <v>33896</v>
+        <v>34075</v>
       </c>
       <c r="G17" s="11">
-        <v>34075</v>
-      </c>
-      <c r="H17" s="11">
         <v>37650</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>57</v>
@@ -2546,17 +2546,17 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>18339</v>
+        <v>18244</v>
       </c>
       <c r="F18" s="13">
-        <v>18244</v>
+        <v>25127</v>
       </c>
       <c r="G18" s="13">
-        <v>25127</v>
-      </c>
-      <c r="H18" s="13">
         <v>44238</v>
       </c>
+      <c r="H18" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="I18" s="13" t="s">
         <v>57</v>
       </c>
@@ -2590,44 +2590,44 @@
       <c r="S18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T18" s="13" t="s">
-        <v>57</v>
+      <c r="T18" s="13">
+        <v>5182</v>
       </c>
       <c r="U18" s="13">
-        <v>5182</v>
+        <v>1634</v>
       </c>
       <c r="V18" s="13">
-        <v>1634</v>
+        <v>1313</v>
       </c>
       <c r="W18" s="13">
-        <v>1313</v>
+        <v>17350</v>
       </c>
       <c r="X18" s="13">
-        <v>17350</v>
+        <v>22647</v>
       </c>
       <c r="Y18" s="13">
-        <v>22647</v>
+        <v>21230</v>
       </c>
       <c r="Z18" s="13">
-        <v>21230</v>
+        <v>21462</v>
       </c>
       <c r="AA18" s="13">
-        <v>21462</v>
+        <v>978</v>
       </c>
       <c r="AB18" s="13">
-        <v>978</v>
+        <v>475</v>
       </c>
       <c r="AC18" s="13">
-        <v>475</v>
+        <v>871</v>
       </c>
       <c r="AD18" s="13">
-        <v>871</v>
+        <v>14823</v>
       </c>
       <c r="AE18" s="13">
-        <v>14823</v>
-      </c>
-      <c r="AF18" s="13">
         <v>24554</v>
+      </c>
+      <c r="AF18" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AG18" s="13" t="s">
         <v>57</v>
@@ -2806,53 +2806,53 @@
       <c r="AL19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM19" s="11" t="s">
-        <v>57</v>
+      <c r="AM19" s="11">
+        <v>4008</v>
       </c>
       <c r="AN19" s="11">
-        <v>4008</v>
+        <v>15323</v>
       </c>
       <c r="AO19" s="11">
-        <v>15323</v>
+        <v>27394</v>
       </c>
       <c r="AP19" s="11">
-        <v>27394</v>
+        <v>40798</v>
       </c>
       <c r="AQ19" s="11">
-        <v>40798</v>
+        <v>31126</v>
       </c>
       <c r="AR19" s="11">
-        <v>31126</v>
+        <v>28500</v>
       </c>
       <c r="AS19" s="11">
-        <v>28500</v>
+        <v>42596</v>
       </c>
       <c r="AT19" s="11">
-        <v>42596</v>
+        <v>40262</v>
       </c>
       <c r="AU19" s="11">
-        <v>40262</v>
+        <v>47614</v>
       </c>
       <c r="AV19" s="11">
-        <v>47614</v>
+        <v>41503</v>
       </c>
       <c r="AW19" s="11">
-        <v>41503</v>
+        <v>50167</v>
       </c>
       <c r="AX19" s="11">
-        <v>50167</v>
+        <v>49450</v>
       </c>
       <c r="AY19" s="11">
-        <v>49450</v>
+        <v>87250</v>
       </c>
       <c r="AZ19" s="11">
-        <v>87250</v>
+        <v>1660</v>
       </c>
       <c r="BA19" s="11">
-        <v>1660</v>
+        <v>46423</v>
       </c>
       <c r="BB19" s="11">
-        <v>46470</v>
+        <v>60827</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -2980,11 +2980,11 @@
       <c r="AQ20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS20" s="13">
+      <c r="AR20" s="13">
         <v>55920</v>
+      </c>
+      <c r="AS20" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT20" s="13" t="s">
         <v>57</v>
@@ -3317,8 +3317,8 @@
       <c r="AE23" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AF23" s="15" t="s">
-        <v>57</v>
+      <c r="AF23" s="15">
+        <v>0</v>
       </c>
       <c r="AG23" s="15">
         <v>0</v>
@@ -3394,154 +3394,154 @@
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17">
-        <v>87332</v>
+        <v>52140</v>
       </c>
       <c r="F24" s="17">
-        <v>52140</v>
+        <v>59202</v>
       </c>
       <c r="G24" s="17">
-        <v>59202</v>
+        <v>81888</v>
       </c>
       <c r="H24" s="17">
-        <v>81888</v>
+        <v>77324</v>
       </c>
       <c r="I24" s="17">
-        <v>77324</v>
+        <v>73070</v>
       </c>
       <c r="J24" s="17">
-        <v>73070</v>
+        <v>45397</v>
       </c>
       <c r="K24" s="17">
-        <v>45397</v>
+        <v>96397</v>
       </c>
       <c r="L24" s="17">
-        <v>96397</v>
+        <v>83698</v>
       </c>
       <c r="M24" s="17">
-        <v>83698</v>
+        <v>82174</v>
       </c>
       <c r="N24" s="17">
-        <v>82174</v>
+        <v>46698</v>
       </c>
       <c r="O24" s="17">
-        <v>46698</v>
+        <v>79438</v>
       </c>
       <c r="P24" s="17">
-        <v>79438</v>
+        <v>51724</v>
       </c>
       <c r="Q24" s="17">
-        <v>51724</v>
+        <v>65261</v>
       </c>
       <c r="R24" s="17">
-        <v>65261</v>
+        <v>60225</v>
       </c>
       <c r="S24" s="17">
-        <v>60225</v>
+        <v>49929</v>
       </c>
       <c r="T24" s="17">
-        <v>49929</v>
+        <v>43180</v>
       </c>
       <c r="U24" s="17">
-        <v>43180</v>
+        <v>54469</v>
       </c>
       <c r="V24" s="17">
-        <v>54469</v>
+        <v>43760</v>
       </c>
       <c r="W24" s="17">
-        <v>43760</v>
+        <v>54201</v>
       </c>
       <c r="X24" s="17">
-        <v>54201</v>
+        <v>107997</v>
       </c>
       <c r="Y24" s="17">
-        <v>107997</v>
+        <v>94242</v>
       </c>
       <c r="Z24" s="17">
-        <v>94242</v>
+        <v>71540</v>
       </c>
       <c r="AA24" s="17">
-        <v>71540</v>
+        <v>32597</v>
       </c>
       <c r="AB24" s="17">
-        <v>32597</v>
+        <v>60220</v>
       </c>
       <c r="AC24" s="17">
-        <v>60220</v>
+        <v>51871</v>
       </c>
       <c r="AD24" s="17">
-        <v>51871</v>
+        <v>68623</v>
       </c>
       <c r="AE24" s="17">
-        <v>68623</v>
+        <v>69634</v>
       </c>
       <c r="AF24" s="17">
-        <v>69634</v>
+        <v>86162</v>
       </c>
       <c r="AG24" s="17">
-        <v>86162</v>
+        <v>98457</v>
       </c>
       <c r="AH24" s="17">
-        <v>98457</v>
+        <v>54311</v>
       </c>
       <c r="AI24" s="17">
-        <v>54311</v>
+        <v>204250</v>
       </c>
       <c r="AJ24" s="17">
-        <v>204250</v>
+        <v>158435</v>
       </c>
       <c r="AK24" s="17">
-        <v>158435</v>
+        <v>116580</v>
       </c>
       <c r="AL24" s="17">
-        <v>116580</v>
+        <v>131975</v>
       </c>
       <c r="AM24" s="17">
-        <v>131975</v>
+        <v>122904</v>
       </c>
       <c r="AN24" s="17">
-        <v>122904</v>
+        <v>144434</v>
       </c>
       <c r="AO24" s="17">
-        <v>144434</v>
+        <v>158030</v>
       </c>
       <c r="AP24" s="17">
-        <v>158030</v>
+        <v>117465</v>
       </c>
       <c r="AQ24" s="17">
-        <v>117465</v>
+        <v>110448</v>
       </c>
       <c r="AR24" s="17">
-        <v>110448</v>
+        <v>84420</v>
       </c>
       <c r="AS24" s="17">
-        <v>84420</v>
+        <v>87791</v>
       </c>
       <c r="AT24" s="17">
-        <v>87791</v>
+        <v>144627</v>
       </c>
       <c r="AU24" s="17">
-        <v>144627</v>
+        <v>167639</v>
       </c>
       <c r="AV24" s="17">
-        <v>167639</v>
+        <v>144603</v>
       </c>
       <c r="AW24" s="17">
-        <v>144603</v>
+        <v>131442</v>
       </c>
       <c r="AX24" s="17">
-        <v>131442</v>
+        <v>138365</v>
       </c>
       <c r="AY24" s="17">
-        <v>138365</v>
+        <v>128995</v>
       </c>
       <c r="AZ24" s="17">
-        <v>128995</v>
+        <v>129557</v>
       </c>
       <c r="BA24" s="17">
-        <v>129557</v>
+        <v>160753</v>
       </c>
       <c r="BB24" s="17">
-        <v>160800</v>
+        <v>173522</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -4004,8 +4004,8 @@
       <c r="J31" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K31" s="11" t="s">
-        <v>57</v>
+      <c r="K31" s="11">
+        <v>0</v>
       </c>
       <c r="L31" s="11">
         <v>0</v>
@@ -4031,8 +4031,8 @@
       <c r="S31" s="11">
         <v>0</v>
       </c>
-      <c r="T31" s="11">
-        <v>0</v>
+      <c r="T31" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="U31" s="11" t="s">
         <v>57</v>
@@ -4100,41 +4100,41 @@
       <c r="AP31" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ31" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR31" s="11">
+      <c r="AQ31" s="11">
         <v>50115</v>
       </c>
-      <c r="AS31" s="11" t="s">
-        <v>57</v>
+      <c r="AR31" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS31" s="11">
+        <v>17186</v>
       </c>
       <c r="AT31" s="11">
-        <v>17186</v>
+        <v>44178</v>
       </c>
       <c r="AU31" s="11">
-        <v>44178</v>
+        <v>38806</v>
       </c>
       <c r="AV31" s="11">
-        <v>38806</v>
+        <v>71816</v>
       </c>
       <c r="AW31" s="11">
-        <v>71816</v>
+        <v>66424</v>
       </c>
       <c r="AX31" s="11">
-        <v>66424</v>
+        <v>37823</v>
       </c>
       <c r="AY31" s="11">
-        <v>37823</v>
+        <v>22583</v>
       </c>
       <c r="AZ31" s="11">
-        <v>22583</v>
+        <v>42404</v>
       </c>
       <c r="BA31" s="11">
-        <v>42404</v>
+        <v>39911</v>
       </c>
       <c r="BB31" s="11">
-        <v>39911</v>
+        <v>51712</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4259,20 +4259,20 @@
       <c r="AP32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ32" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR32" s="13">
+      <c r="AQ32" s="13">
         <v>505</v>
       </c>
-      <c r="AS32" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT32" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU32" s="13" t="s">
-        <v>57</v>
+      <c r="AR32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU32" s="13">
+        <v>0</v>
       </c>
       <c r="AV32" s="13">
         <v>0</v>
@@ -4287,10 +4287,10 @@
         <v>0</v>
       </c>
       <c r="AZ32" s="13">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="BA32" s="13">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="BB32" s="13">
         <v>0</v>
@@ -4385,41 +4385,41 @@
       <c r="AE33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF33" s="11" t="s">
-        <v>57</v>
+      <c r="AF33" s="11">
+        <v>18072</v>
       </c>
       <c r="AG33" s="11">
-        <v>18072</v>
+        <v>21941</v>
       </c>
       <c r="AH33" s="11">
-        <v>21941</v>
+        <v>5046</v>
       </c>
       <c r="AI33" s="11">
-        <v>5046</v>
+        <v>17304</v>
       </c>
       <c r="AJ33" s="11">
-        <v>17304</v>
+        <v>18163</v>
       </c>
       <c r="AK33" s="11">
-        <v>18163</v>
+        <v>29234</v>
       </c>
       <c r="AL33" s="11">
-        <v>29234</v>
+        <v>7057</v>
       </c>
       <c r="AM33" s="11">
-        <v>7057</v>
+        <v>14122</v>
       </c>
       <c r="AN33" s="11">
-        <v>14122</v>
+        <v>2727</v>
       </c>
       <c r="AO33" s="11">
-        <v>2727</v>
+        <v>31053</v>
       </c>
       <c r="AP33" s="11">
-        <v>31053</v>
-      </c>
-      <c r="AQ33" s="11">
         <v>33877</v>
+      </c>
+      <c r="AQ33" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR33" s="11" t="s">
         <v>57</v>
@@ -4472,45 +4472,45 @@
       <c r="G34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H34" s="13" t="s">
-        <v>57</v>
+      <c r="H34" s="13">
+        <v>55933</v>
       </c>
       <c r="I34" s="13">
-        <v>55933</v>
+        <v>23028</v>
       </c>
       <c r="J34" s="13">
-        <v>23028</v>
+        <v>5363</v>
       </c>
       <c r="K34" s="13">
-        <v>5363</v>
+        <v>50076</v>
       </c>
       <c r="L34" s="13">
-        <v>50076</v>
+        <v>31941</v>
       </c>
       <c r="M34" s="13">
-        <v>31941</v>
+        <v>16677</v>
       </c>
       <c r="N34" s="13">
-        <v>16677</v>
+        <v>9602</v>
       </c>
       <c r="O34" s="13">
-        <v>9602</v>
+        <v>16853</v>
       </c>
       <c r="P34" s="13">
-        <v>16853</v>
+        <v>16208</v>
       </c>
       <c r="Q34" s="13">
-        <v>16208</v>
+        <v>8259</v>
       </c>
       <c r="R34" s="13">
-        <v>8259</v>
+        <v>10716</v>
       </c>
       <c r="S34" s="13">
-        <v>10716</v>
-      </c>
-      <c r="T34" s="13">
         <v>8780</v>
       </c>
+      <c r="T34" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="U34" s="13" t="s">
         <v>57</v>
       </c>
@@ -4544,8 +4544,8 @@
       <c r="AE34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF34" s="13" t="s">
-        <v>57</v>
+      <c r="AF34" s="13">
+        <v>0</v>
       </c>
       <c r="AG34" s="13">
         <v>0</v>
@@ -4577,8 +4577,8 @@
       <c r="AP34" s="13">
         <v>0</v>
       </c>
-      <c r="AQ34" s="13">
-        <v>0</v>
+      <c r="AQ34" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AR34" s="13" t="s">
         <v>57</v>
@@ -4667,77 +4667,77 @@
       <c r="S35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T35" s="11" t="s">
-        <v>57</v>
+      <c r="T35" s="11">
+        <v>37827</v>
       </c>
       <c r="U35" s="11">
-        <v>37827</v>
+        <v>47525</v>
       </c>
       <c r="V35" s="11">
-        <v>47525</v>
+        <v>46060</v>
       </c>
       <c r="W35" s="11">
-        <v>46060</v>
+        <v>42151</v>
       </c>
       <c r="X35" s="11">
-        <v>42151</v>
+        <v>68936</v>
       </c>
       <c r="Y35" s="11">
-        <v>68936</v>
+        <v>85982</v>
       </c>
       <c r="Z35" s="11">
-        <v>85982</v>
+        <v>58559</v>
       </c>
       <c r="AA35" s="11">
-        <v>58559</v>
+        <v>55835</v>
       </c>
       <c r="AB35" s="11">
-        <v>55835</v>
+        <v>69173</v>
       </c>
       <c r="AC35" s="11">
-        <v>69173</v>
+        <v>59235</v>
       </c>
       <c r="AD35" s="11">
-        <v>59235</v>
+        <v>50372</v>
       </c>
       <c r="AE35" s="11">
-        <v>50372</v>
+        <v>47733</v>
       </c>
       <c r="AF35" s="11">
-        <v>47733</v>
+        <v>64030</v>
       </c>
       <c r="AG35" s="11">
-        <v>64030</v>
+        <v>77040</v>
       </c>
       <c r="AH35" s="11">
-        <v>77040</v>
+        <v>60132</v>
       </c>
       <c r="AI35" s="11">
-        <v>60132</v>
+        <v>74626</v>
       </c>
       <c r="AJ35" s="11">
-        <v>74626</v>
+        <v>70923</v>
       </c>
       <c r="AK35" s="11">
-        <v>70923</v>
+        <v>56972</v>
       </c>
       <c r="AL35" s="11">
-        <v>56972</v>
+        <v>64678</v>
       </c>
       <c r="AM35" s="11">
-        <v>64678</v>
+        <v>48902</v>
       </c>
       <c r="AN35" s="11">
-        <v>48902</v>
+        <v>30862</v>
       </c>
       <c r="AO35" s="11">
-        <v>30862</v>
+        <v>16118</v>
       </c>
       <c r="AP35" s="11">
-        <v>16118</v>
-      </c>
-      <c r="AQ35" s="11">
         <v>2296</v>
+      </c>
+      <c r="AQ35" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR35" s="11" t="s">
         <v>57</v>
@@ -4790,45 +4790,45 @@
       <c r="G36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H36" s="13" t="s">
-        <v>57</v>
+      <c r="H36" s="13">
+        <v>49635</v>
       </c>
       <c r="I36" s="13">
-        <v>49635</v>
+        <v>60180</v>
       </c>
       <c r="J36" s="13">
-        <v>60180</v>
+        <v>34908</v>
       </c>
       <c r="K36" s="13">
-        <v>34908</v>
+        <v>67908</v>
       </c>
       <c r="L36" s="13">
-        <v>67908</v>
+        <v>48910</v>
       </c>
       <c r="M36" s="13">
-        <v>48910</v>
+        <v>52730</v>
       </c>
       <c r="N36" s="13">
-        <v>52730</v>
+        <v>47858</v>
       </c>
       <c r="O36" s="13">
-        <v>47858</v>
+        <v>49554</v>
       </c>
       <c r="P36" s="13">
-        <v>49554</v>
+        <v>54126</v>
       </c>
       <c r="Q36" s="13">
-        <v>54126</v>
+        <v>57004</v>
       </c>
       <c r="R36" s="13">
-        <v>57004</v>
+        <v>45035</v>
       </c>
       <c r="S36" s="13">
-        <v>45035</v>
-      </c>
-      <c r="T36" s="13">
         <v>58104</v>
       </c>
+      <c r="T36" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="U36" s="13" t="s">
         <v>57</v>
       </c>
@@ -4898,11 +4898,11 @@
       <c r="AQ36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS36" s="13">
-        <v>0</v>
+      <c r="AR36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS36" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT36" s="13" t="s">
         <v>57</v>
@@ -4941,16 +4941,16 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>59539</v>
+        <v>45071</v>
       </c>
       <c r="F37" s="11">
-        <v>45071</v>
+        <v>32339</v>
       </c>
       <c r="G37" s="11">
-        <v>32339</v>
-      </c>
-      <c r="H37" s="11">
         <v>50134</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>57</v>
@@ -5100,17 +5100,17 @@
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
-        <v>16401</v>
+        <v>20169</v>
       </c>
       <c r="F38" s="13">
-        <v>20169</v>
+        <v>20757</v>
       </c>
       <c r="G38" s="13">
-        <v>20757</v>
-      </c>
-      <c r="H38" s="13">
         <v>38637</v>
       </c>
+      <c r="H38" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="I38" s="13" t="s">
         <v>57</v>
       </c>
@@ -5144,44 +5144,44 @@
       <c r="S38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T38" s="13" t="s">
-        <v>57</v>
+      <c r="T38" s="13">
+        <v>5356</v>
       </c>
       <c r="U38" s="13">
-        <v>5356</v>
+        <v>1503</v>
       </c>
       <c r="V38" s="13">
-        <v>1503</v>
+        <v>1091</v>
       </c>
       <c r="W38" s="13">
-        <v>1091</v>
+        <v>13646</v>
       </c>
       <c r="X38" s="13">
-        <v>13646</v>
+        <v>18993</v>
       </c>
       <c r="Y38" s="13">
-        <v>18993</v>
+        <v>22364</v>
       </c>
       <c r="Z38" s="13">
-        <v>22364</v>
+        <v>24677</v>
       </c>
       <c r="AA38" s="13">
-        <v>24677</v>
+        <v>1917</v>
       </c>
       <c r="AB38" s="13">
-        <v>1917</v>
+        <v>475</v>
       </c>
       <c r="AC38" s="13">
-        <v>475</v>
+        <v>871</v>
       </c>
       <c r="AD38" s="13">
-        <v>871</v>
+        <v>14823</v>
       </c>
       <c r="AE38" s="13">
-        <v>14823</v>
-      </c>
-      <c r="AF38" s="13">
         <v>24554</v>
+      </c>
+      <c r="AF38" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AG38" s="13" t="s">
         <v>57</v>
@@ -5360,53 +5360,53 @@
       <c r="AL39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM39" s="11" t="s">
-        <v>57</v>
+      <c r="AM39" s="11">
+        <v>3281</v>
       </c>
       <c r="AN39" s="11">
-        <v>3281</v>
+        <v>15145</v>
       </c>
       <c r="AO39" s="11">
-        <v>15145</v>
+        <v>27844</v>
       </c>
       <c r="AP39" s="11">
-        <v>27844</v>
+        <v>44631</v>
       </c>
       <c r="AQ39" s="11">
-        <v>44631</v>
+        <v>39281</v>
       </c>
       <c r="AR39" s="11">
-        <v>39281</v>
+        <v>29462</v>
       </c>
       <c r="AS39" s="11">
-        <v>29462</v>
+        <v>39907</v>
       </c>
       <c r="AT39" s="11">
-        <v>39907</v>
+        <v>37036</v>
       </c>
       <c r="AU39" s="11">
-        <v>37036</v>
+        <v>48319</v>
       </c>
       <c r="AV39" s="11">
-        <v>48319</v>
+        <v>49708</v>
       </c>
       <c r="AW39" s="11">
-        <v>49708</v>
+        <v>47261</v>
       </c>
       <c r="AX39" s="11">
-        <v>47261</v>
+        <v>48621</v>
       </c>
       <c r="AY39" s="11">
-        <v>48621</v>
+        <v>41881</v>
       </c>
       <c r="AZ39" s="11">
-        <v>41881</v>
+        <v>44411</v>
       </c>
       <c r="BA39" s="11">
-        <v>44411</v>
+        <v>56181</v>
       </c>
       <c r="BB39" s="11">
-        <v>56181</v>
+        <v>53891</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5534,11 +5534,11 @@
       <c r="AQ40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR40" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS40" s="13">
+      <c r="AR40" s="13">
         <v>55833</v>
+      </c>
+      <c r="AS40" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT40" s="13" t="s">
         <v>57</v>
@@ -5871,8 +5871,8 @@
       <c r="AE43" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AF43" s="15" t="s">
-        <v>57</v>
+      <c r="AF43" s="15">
+        <v>0</v>
       </c>
       <c r="AG43" s="15">
         <v>0</v>
@@ -6085,8 +6085,8 @@
       <c r="AE45" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AF45" s="17" t="s">
-        <v>57</v>
+      <c r="AF45" s="17">
+        <v>0</v>
       </c>
       <c r="AG45" s="17">
         <v>0</v>
@@ -6162,154 +6162,154 @@
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15">
-        <v>75940</v>
+        <v>65240</v>
       </c>
       <c r="F46" s="15">
-        <v>65240</v>
+        <v>53096</v>
       </c>
       <c r="G46" s="15">
-        <v>53096</v>
+        <v>88771</v>
       </c>
       <c r="H46" s="15">
-        <v>88771</v>
+        <v>105568</v>
       </c>
       <c r="I46" s="15">
-        <v>105568</v>
+        <v>83208</v>
       </c>
       <c r="J46" s="15">
-        <v>83208</v>
+        <v>40271</v>
       </c>
       <c r="K46" s="15">
-        <v>40271</v>
+        <v>117984</v>
       </c>
       <c r="L46" s="15">
-        <v>117984</v>
+        <v>80851</v>
       </c>
       <c r="M46" s="15">
-        <v>80851</v>
+        <v>69407</v>
       </c>
       <c r="N46" s="15">
-        <v>69407</v>
+        <v>57460</v>
       </c>
       <c r="O46" s="15">
-        <v>57460</v>
+        <v>66407</v>
       </c>
       <c r="P46" s="15">
-        <v>66407</v>
+        <v>70334</v>
       </c>
       <c r="Q46" s="15">
-        <v>70334</v>
+        <v>65263</v>
       </c>
       <c r="R46" s="15">
-        <v>65263</v>
+        <v>55751</v>
       </c>
       <c r="S46" s="15">
-        <v>55751</v>
+        <v>66884</v>
       </c>
       <c r="T46" s="15">
-        <v>66884</v>
+        <v>43183</v>
       </c>
       <c r="U46" s="15">
-        <v>43183</v>
+        <v>49028</v>
       </c>
       <c r="V46" s="15">
-        <v>49028</v>
+        <v>47151</v>
       </c>
       <c r="W46" s="15">
-        <v>47151</v>
+        <v>55797</v>
       </c>
       <c r="X46" s="15">
-        <v>55797</v>
+        <v>87929</v>
       </c>
       <c r="Y46" s="15">
-        <v>87929</v>
+        <v>108346</v>
       </c>
       <c r="Z46" s="15">
-        <v>108346</v>
+        <v>83236</v>
       </c>
       <c r="AA46" s="15">
-        <v>83236</v>
+        <v>57752</v>
       </c>
       <c r="AB46" s="15">
-        <v>57752</v>
+        <v>69648</v>
       </c>
       <c r="AC46" s="15">
-        <v>69648</v>
+        <v>60106</v>
       </c>
       <c r="AD46" s="15">
-        <v>60106</v>
+        <v>65195</v>
       </c>
       <c r="AE46" s="15">
-        <v>65195</v>
+        <v>72287</v>
       </c>
       <c r="AF46" s="15">
-        <v>72287</v>
+        <v>82102</v>
       </c>
       <c r="AG46" s="15">
-        <v>82102</v>
+        <v>98982</v>
       </c>
       <c r="AH46" s="15">
-        <v>98982</v>
+        <v>65178</v>
       </c>
       <c r="AI46" s="15">
-        <v>65178</v>
+        <v>91930</v>
       </c>
       <c r="AJ46" s="15">
-        <v>91930</v>
+        <v>89086</v>
       </c>
       <c r="AK46" s="15">
-        <v>89086</v>
+        <v>86206</v>
       </c>
       <c r="AL46" s="15">
-        <v>86206</v>
+        <v>71735</v>
       </c>
       <c r="AM46" s="15">
-        <v>71735</v>
+        <v>66305</v>
       </c>
       <c r="AN46" s="15">
-        <v>66305</v>
+        <v>48734</v>
       </c>
       <c r="AO46" s="15">
-        <v>48734</v>
+        <v>75014</v>
       </c>
       <c r="AP46" s="15">
-        <v>75014</v>
+        <v>80804</v>
       </c>
       <c r="AQ46" s="15">
-        <v>80804</v>
+        <v>89901</v>
       </c>
       <c r="AR46" s="15">
-        <v>89901</v>
+        <v>85295</v>
       </c>
       <c r="AS46" s="15">
-        <v>85295</v>
+        <v>57093</v>
       </c>
       <c r="AT46" s="15">
-        <v>57093</v>
+        <v>81214</v>
       </c>
       <c r="AU46" s="15">
-        <v>81214</v>
+        <v>87125</v>
       </c>
       <c r="AV46" s="15">
-        <v>87125</v>
+        <v>121524</v>
       </c>
       <c r="AW46" s="15">
-        <v>121524</v>
+        <v>113685</v>
       </c>
       <c r="AX46" s="15">
-        <v>113685</v>
+        <v>86443</v>
       </c>
       <c r="AY46" s="15">
-        <v>86443</v>
+        <v>64464</v>
       </c>
       <c r="AZ46" s="15">
-        <v>64464</v>
+        <v>86862</v>
       </c>
       <c r="BA46" s="15">
-        <v>86862</v>
+        <v>96092</v>
       </c>
       <c r="BB46" s="15">
-        <v>96092</v>
+        <v>105603</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6772,8 +6772,8 @@
       <c r="J53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K53" s="11" t="s">
-        <v>57</v>
+      <c r="K53" s="11">
+        <v>0</v>
       </c>
       <c r="L53" s="11">
         <v>0</v>
@@ -6799,8 +6799,8 @@
       <c r="S53" s="11">
         <v>0</v>
       </c>
-      <c r="T53" s="11">
-        <v>0</v>
+      <c r="T53" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="U53" s="11" t="s">
         <v>57</v>
@@ -6868,41 +6868,41 @@
       <c r="AP53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR53" s="11">
+      <c r="AQ53" s="11">
         <v>225433</v>
       </c>
-      <c r="AS53" s="11" t="s">
-        <v>57</v>
+      <c r="AR53" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS53" s="11">
+        <v>72628</v>
       </c>
       <c r="AT53" s="11">
-        <v>72628</v>
+        <v>236947</v>
       </c>
       <c r="AU53" s="11">
-        <v>236947</v>
+        <v>235724</v>
       </c>
       <c r="AV53" s="11">
-        <v>235724</v>
+        <v>446305</v>
       </c>
       <c r="AW53" s="11">
-        <v>446305</v>
+        <v>454222</v>
       </c>
       <c r="AX53" s="11">
-        <v>454222</v>
+        <v>265659</v>
       </c>
       <c r="AY53" s="11">
-        <v>265659</v>
+        <v>144469</v>
       </c>
       <c r="AZ53" s="11">
-        <v>144469</v>
+        <v>309872</v>
       </c>
       <c r="BA53" s="11">
-        <v>309872</v>
+        <v>334483</v>
       </c>
       <c r="BB53" s="11">
-        <v>334483</v>
+        <v>452242</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -7027,20 +7027,20 @@
       <c r="AP54" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ54" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR54" s="13">
+      <c r="AQ54" s="13">
         <v>5872</v>
       </c>
-      <c r="AS54" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT54" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU54" s="13" t="s">
-        <v>57</v>
+      <c r="AR54" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT54" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU54" s="13">
+        <v>0</v>
       </c>
       <c r="AV54" s="13">
         <v>0</v>
@@ -7055,10 +7055,10 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="13">
-        <v>0</v>
+        <v>443</v>
       </c>
       <c r="BA54" s="13">
-        <v>443</v>
+        <v>0</v>
       </c>
       <c r="BB54" s="13">
         <v>0</v>
@@ -7153,41 +7153,41 @@
       <c r="AE55" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF55" s="11" t="s">
-        <v>57</v>
+      <c r="AF55" s="11">
+        <v>42775</v>
       </c>
       <c r="AG55" s="11">
-        <v>42775</v>
+        <v>56061</v>
       </c>
       <c r="AH55" s="11">
-        <v>56061</v>
+        <v>14078</v>
       </c>
       <c r="AI55" s="11">
-        <v>14078</v>
+        <v>45922</v>
       </c>
       <c r="AJ55" s="11">
-        <v>45922</v>
+        <v>47505</v>
       </c>
       <c r="AK55" s="11">
-        <v>47505</v>
+        <v>105997</v>
       </c>
       <c r="AL55" s="11">
-        <v>105997</v>
+        <v>28139</v>
       </c>
       <c r="AM55" s="11">
-        <v>28139</v>
+        <v>63255</v>
       </c>
       <c r="AN55" s="11">
-        <v>63255</v>
+        <v>10835</v>
       </c>
       <c r="AO55" s="11">
-        <v>10835</v>
+        <v>133066</v>
       </c>
       <c r="AP55" s="11">
-        <v>133066</v>
-      </c>
-      <c r="AQ55" s="11">
         <v>164929</v>
+      </c>
+      <c r="AQ55" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR55" s="11" t="s">
         <v>57</v>
@@ -7240,45 +7240,45 @@
       <c r="G56" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H56" s="13" t="s">
-        <v>57</v>
+      <c r="H56" s="13">
+        <v>86010</v>
       </c>
       <c r="I56" s="13">
-        <v>86010</v>
+        <v>56909</v>
       </c>
       <c r="J56" s="13">
-        <v>56909</v>
+        <v>11294</v>
       </c>
       <c r="K56" s="13">
-        <v>11294</v>
+        <v>99413</v>
       </c>
       <c r="L56" s="13">
-        <v>99413</v>
+        <v>61669</v>
       </c>
       <c r="M56" s="13">
-        <v>61669</v>
+        <v>39265</v>
       </c>
       <c r="N56" s="13">
-        <v>39265</v>
+        <v>21006</v>
       </c>
       <c r="O56" s="13">
-        <v>21006</v>
+        <v>37412</v>
       </c>
       <c r="P56" s="13">
-        <v>37412</v>
+        <v>36631</v>
       </c>
       <c r="Q56" s="13">
-        <v>36631</v>
+        <v>22206</v>
       </c>
       <c r="R56" s="13">
-        <v>22206</v>
+        <v>22622</v>
       </c>
       <c r="S56" s="13">
-        <v>22622</v>
-      </c>
-      <c r="T56" s="13">
         <v>14770</v>
       </c>
+      <c r="T56" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="U56" s="13" t="s">
         <v>57</v>
       </c>
@@ -7312,8 +7312,8 @@
       <c r="AE56" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF56" s="13" t="s">
-        <v>57</v>
+      <c r="AF56" s="13">
+        <v>0</v>
       </c>
       <c r="AG56" s="13">
         <v>0</v>
@@ -7345,8 +7345,8 @@
       <c r="AP56" s="13">
         <v>0</v>
       </c>
-      <c r="AQ56" s="13">
-        <v>0</v>
+      <c r="AQ56" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AR56" s="13" t="s">
         <v>57</v>
@@ -7435,77 +7435,77 @@
       <c r="S57" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T57" s="11" t="s">
-        <v>57</v>
+      <c r="T57" s="11">
+        <v>67149</v>
       </c>
       <c r="U57" s="11">
-        <v>67149</v>
+        <v>84396</v>
       </c>
       <c r="V57" s="11">
-        <v>84396</v>
+        <v>82890</v>
       </c>
       <c r="W57" s="11">
-        <v>82890</v>
+        <v>74548</v>
       </c>
       <c r="X57" s="11">
-        <v>74548</v>
+        <v>127266</v>
       </c>
       <c r="Y57" s="11">
-        <v>127266</v>
+        <v>177013</v>
       </c>
       <c r="Z57" s="11">
-        <v>177013</v>
+        <v>129892</v>
       </c>
       <c r="AA57" s="11">
-        <v>129892</v>
+        <v>128964</v>
       </c>
       <c r="AB57" s="11">
-        <v>128964</v>
+        <v>172053</v>
       </c>
       <c r="AC57" s="11">
-        <v>172053</v>
+        <v>153203</v>
       </c>
       <c r="AD57" s="11">
-        <v>153203</v>
+        <v>133393</v>
       </c>
       <c r="AE57" s="11">
-        <v>133393</v>
+        <v>127034</v>
       </c>
       <c r="AF57" s="11">
-        <v>127034</v>
+        <v>175039</v>
       </c>
       <c r="AG57" s="11">
-        <v>175039</v>
+        <v>218869</v>
       </c>
       <c r="AH57" s="11">
-        <v>218869</v>
+        <v>178641</v>
       </c>
       <c r="AI57" s="11">
-        <v>178641</v>
+        <v>293114</v>
       </c>
       <c r="AJ57" s="11">
-        <v>293114</v>
+        <v>274285</v>
       </c>
       <c r="AK57" s="11">
-        <v>274285</v>
+        <v>224004</v>
       </c>
       <c r="AL57" s="11">
-        <v>224004</v>
+        <v>266713</v>
       </c>
       <c r="AM57" s="11">
-        <v>266713</v>
+        <v>197899</v>
       </c>
       <c r="AN57" s="11">
-        <v>197899</v>
+        <v>135034</v>
       </c>
       <c r="AO57" s="11">
-        <v>135034</v>
+        <v>67011</v>
       </c>
       <c r="AP57" s="11">
-        <v>67011</v>
-      </c>
-      <c r="AQ57" s="11">
         <v>8148</v>
+      </c>
+      <c r="AQ57" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR57" s="11" t="s">
         <v>57</v>
@@ -7558,45 +7558,45 @@
       <c r="G58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H58" s="13" t="s">
-        <v>57</v>
+      <c r="H58" s="13">
+        <v>58209</v>
       </c>
       <c r="I58" s="13">
-        <v>58209</v>
+        <v>74727</v>
       </c>
       <c r="J58" s="13">
-        <v>74727</v>
+        <v>44354</v>
       </c>
       <c r="K58" s="13">
-        <v>44354</v>
+        <v>87446</v>
       </c>
       <c r="L58" s="13">
-        <v>87446</v>
+        <v>62017</v>
       </c>
       <c r="M58" s="13">
-        <v>62017</v>
+        <v>87743</v>
       </c>
       <c r="N58" s="13">
-        <v>87743</v>
+        <v>90266</v>
       </c>
       <c r="O58" s="13">
-        <v>90266</v>
+        <v>94972</v>
       </c>
       <c r="P58" s="13">
-        <v>94972</v>
+        <v>103159</v>
       </c>
       <c r="Q58" s="13">
-        <v>103159</v>
+        <v>104250</v>
       </c>
       <c r="R58" s="13">
-        <v>104250</v>
+        <v>83963</v>
       </c>
       <c r="S58" s="13">
-        <v>83963</v>
-      </c>
-      <c r="T58" s="13">
         <v>92729</v>
       </c>
+      <c r="T58" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="U58" s="13" t="s">
         <v>57</v>
       </c>
@@ -7666,11 +7666,11 @@
       <c r="AQ58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR58" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS58" s="13">
-        <v>0</v>
+      <c r="AR58" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS58" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT58" s="13" t="s">
         <v>57</v>
@@ -7709,16 +7709,16 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>77328</v>
+        <v>63128</v>
       </c>
       <c r="F59" s="11">
-        <v>63128</v>
+        <v>42417</v>
       </c>
       <c r="G59" s="11">
-        <v>42417</v>
-      </c>
-      <c r="H59" s="11">
         <v>56865</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="I59" s="11" t="s">
         <v>57</v>
@@ -7868,17 +7868,17 @@
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
-        <v>38287</v>
+        <v>32101</v>
       </c>
       <c r="F60" s="13">
-        <v>32101</v>
+        <v>33032</v>
       </c>
       <c r="G60" s="13">
-        <v>33032</v>
-      </c>
-      <c r="H60" s="13">
         <v>72458</v>
       </c>
+      <c r="H60" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="I60" s="13" t="s">
         <v>57</v>
       </c>
@@ -7912,44 +7912,44 @@
       <c r="S60" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T60" s="13" t="s">
-        <v>57</v>
+      <c r="T60" s="13">
+        <v>13661</v>
       </c>
       <c r="U60" s="13">
-        <v>13661</v>
+        <v>2987</v>
       </c>
       <c r="V60" s="13">
-        <v>2987</v>
+        <v>3053</v>
       </c>
       <c r="W60" s="13">
-        <v>3053</v>
+        <v>30822</v>
       </c>
       <c r="X60" s="13">
-        <v>30822</v>
+        <v>33171</v>
       </c>
       <c r="Y60" s="13">
-        <v>33171</v>
+        <v>43597</v>
       </c>
       <c r="Z60" s="13">
-        <v>43597</v>
+        <v>53114</v>
       </c>
       <c r="AA60" s="13">
-        <v>53114</v>
+        <v>3919</v>
       </c>
       <c r="AB60" s="13">
-        <v>3919</v>
+        <v>1130</v>
       </c>
       <c r="AC60" s="13">
-        <v>1130</v>
+        <v>2142</v>
       </c>
       <c r="AD60" s="13">
-        <v>2142</v>
+        <v>40043</v>
       </c>
       <c r="AE60" s="13">
-        <v>40043</v>
-      </c>
-      <c r="AF60" s="13">
         <v>63863</v>
+      </c>
+      <c r="AF60" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AG60" s="13" t="s">
         <v>57</v>
@@ -8128,53 +8128,53 @@
       <c r="AL61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM61" s="11" t="s">
-        <v>57</v>
+      <c r="AM61" s="11">
+        <v>15457</v>
       </c>
       <c r="AN61" s="11">
-        <v>15457</v>
+        <v>67191</v>
       </c>
       <c r="AO61" s="11">
-        <v>67191</v>
+        <v>121099</v>
       </c>
       <c r="AP61" s="11">
-        <v>121099</v>
+        <v>194307</v>
       </c>
       <c r="AQ61" s="11">
-        <v>194307</v>
+        <v>168349</v>
       </c>
       <c r="AR61" s="11">
-        <v>168349</v>
+        <v>134985</v>
       </c>
       <c r="AS61" s="11">
-        <v>134985</v>
+        <v>198420</v>
       </c>
       <c r="AT61" s="11">
-        <v>198420</v>
+        <v>194103</v>
       </c>
       <c r="AU61" s="11">
-        <v>194103</v>
+        <v>250593</v>
       </c>
       <c r="AV61" s="11">
-        <v>250593</v>
+        <v>265789</v>
       </c>
       <c r="AW61" s="11">
-        <v>265789</v>
+        <v>263522</v>
       </c>
       <c r="AX61" s="11">
-        <v>263522</v>
+        <v>263098</v>
       </c>
       <c r="AY61" s="11">
-        <v>263098</v>
+        <v>232455</v>
       </c>
       <c r="AZ61" s="11">
-        <v>232455</v>
+        <v>235714</v>
       </c>
       <c r="BA61" s="11">
-        <v>235714</v>
+        <v>301492</v>
       </c>
       <c r="BB61" s="11">
-        <v>301492</v>
+        <v>297689</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -8302,11 +8302,11 @@
       <c r="AQ62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR62" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS62" s="13">
+      <c r="AR62" s="13">
         <v>292946</v>
+      </c>
+      <c r="AS62" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT62" s="13" t="s">
         <v>57</v>
@@ -8515,11 +8515,11 @@
       <c r="AP64" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ64" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR64" s="11">
+      <c r="AQ64" s="11">
         <v>19000</v>
+      </c>
+      <c r="AR64" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS64" s="11" t="s">
         <v>57</v>
@@ -8641,8 +8641,8 @@
       <c r="AE65" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AF65" s="15" t="s">
-        <v>57</v>
+      <c r="AF65" s="15">
+        <v>0</v>
       </c>
       <c r="AG65" s="15">
         <v>0</v>
@@ -8675,10 +8675,10 @@
         <v>0</v>
       </c>
       <c r="AQ65" s="15">
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="AR65" s="15">
-        <v>19000</v>
+        <v>0</v>
       </c>
       <c r="AS65" s="15">
         <v>0</v>
@@ -8857,8 +8857,8 @@
       <c r="AE67" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AF67" s="17" t="s">
-        <v>57</v>
+      <c r="AF67" s="17">
+        <v>0</v>
       </c>
       <c r="AG67" s="17">
         <v>0</v>
@@ -9073,8 +9073,8 @@
       <c r="AE69" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF69" s="11" t="s">
-        <v>57</v>
+      <c r="AF69" s="11">
+        <v>0</v>
       </c>
       <c r="AG69" s="11">
         <v>0</v>
@@ -9107,10 +9107,10 @@
         <v>0</v>
       </c>
       <c r="AQ69" s="11">
-        <v>0</v>
+        <v>-3845</v>
       </c>
       <c r="AR69" s="11">
-        <v>-3845</v>
+        <v>0</v>
       </c>
       <c r="AS69" s="11">
         <v>0</v>
@@ -9150,154 +9150,154 @@
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15">
-        <v>115615</v>
+        <v>95229</v>
       </c>
       <c r="F70" s="15">
-        <v>95229</v>
+        <v>75449</v>
       </c>
       <c r="G70" s="15">
-        <v>75449</v>
+        <v>129323</v>
       </c>
       <c r="H70" s="15">
-        <v>129323</v>
+        <v>144219</v>
       </c>
       <c r="I70" s="15">
-        <v>144219</v>
+        <v>131636</v>
       </c>
       <c r="J70" s="15">
-        <v>131636</v>
+        <v>55648</v>
       </c>
       <c r="K70" s="15">
-        <v>55648</v>
+        <v>186859</v>
       </c>
       <c r="L70" s="15">
-        <v>186859</v>
+        <v>123686</v>
       </c>
       <c r="M70" s="15">
-        <v>123686</v>
+        <v>127008</v>
       </c>
       <c r="N70" s="15">
-        <v>127008</v>
+        <v>111272</v>
       </c>
       <c r="O70" s="15">
-        <v>111272</v>
+        <v>132384</v>
       </c>
       <c r="P70" s="15">
-        <v>132384</v>
+        <v>139790</v>
       </c>
       <c r="Q70" s="15">
-        <v>139790</v>
+        <v>126456</v>
       </c>
       <c r="R70" s="15">
-        <v>126456</v>
+        <v>106585</v>
       </c>
       <c r="S70" s="15">
-        <v>106585</v>
+        <v>107499</v>
       </c>
       <c r="T70" s="15">
-        <v>107499</v>
+        <v>80810</v>
       </c>
       <c r="U70" s="15">
-        <v>80810</v>
+        <v>87383</v>
       </c>
       <c r="V70" s="15">
-        <v>87383</v>
+        <v>85943</v>
       </c>
       <c r="W70" s="15">
-        <v>85943</v>
+        <v>105370</v>
       </c>
       <c r="X70" s="15">
-        <v>105370</v>
+        <v>160437</v>
       </c>
       <c r="Y70" s="15">
-        <v>160437</v>
+        <v>220610</v>
       </c>
       <c r="Z70" s="15">
-        <v>220610</v>
+        <v>183006</v>
       </c>
       <c r="AA70" s="15">
-        <v>183006</v>
+        <v>132883</v>
       </c>
       <c r="AB70" s="15">
-        <v>132883</v>
+        <v>173183</v>
       </c>
       <c r="AC70" s="15">
-        <v>173183</v>
+        <v>155345</v>
       </c>
       <c r="AD70" s="15">
-        <v>155345</v>
+        <v>173436</v>
       </c>
       <c r="AE70" s="15">
-        <v>173436</v>
+        <v>190897</v>
       </c>
       <c r="AF70" s="15">
-        <v>190897</v>
+        <v>217814</v>
       </c>
       <c r="AG70" s="15">
-        <v>217814</v>
+        <v>274930</v>
       </c>
       <c r="AH70" s="15">
-        <v>274930</v>
+        <v>192719</v>
       </c>
       <c r="AI70" s="15">
-        <v>192719</v>
+        <v>339036</v>
       </c>
       <c r="AJ70" s="15">
-        <v>339036</v>
+        <v>321790</v>
       </c>
       <c r="AK70" s="15">
-        <v>321790</v>
+        <v>330001</v>
       </c>
       <c r="AL70" s="15">
-        <v>330001</v>
+        <v>294852</v>
       </c>
       <c r="AM70" s="15">
-        <v>294852</v>
+        <v>276611</v>
       </c>
       <c r="AN70" s="15">
-        <v>276611</v>
+        <v>213060</v>
       </c>
       <c r="AO70" s="15">
-        <v>213060</v>
+        <v>321176</v>
       </c>
       <c r="AP70" s="15">
-        <v>321176</v>
+        <v>367384</v>
       </c>
       <c r="AQ70" s="15">
-        <v>367384</v>
+        <v>414809</v>
       </c>
       <c r="AR70" s="15">
-        <v>414809</v>
+        <v>427931</v>
       </c>
       <c r="AS70" s="15">
-        <v>427931</v>
+        <v>271048</v>
       </c>
       <c r="AT70" s="15">
-        <v>271048</v>
+        <v>431050</v>
       </c>
       <c r="AU70" s="15">
-        <v>431050</v>
+        <v>486317</v>
       </c>
       <c r="AV70" s="15">
-        <v>486317</v>
+        <v>712094</v>
       </c>
       <c r="AW70" s="15">
-        <v>712094</v>
+        <v>717744</v>
       </c>
       <c r="AX70" s="15">
-        <v>717744</v>
+        <v>528757</v>
       </c>
       <c r="AY70" s="15">
-        <v>528757</v>
+        <v>376924</v>
       </c>
       <c r="AZ70" s="15">
-        <v>376924</v>
+        <v>546029</v>
       </c>
       <c r="BA70" s="15">
-        <v>546029</v>
+        <v>635975</v>
       </c>
       <c r="BB70" s="15">
-        <v>635975</v>
+        <v>749931</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9760,8 +9760,8 @@
       <c r="J77" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K77" s="11" t="s">
-        <v>57</v>
+      <c r="K77" s="11">
+        <v>0</v>
       </c>
       <c r="L77" s="11">
         <v>0</v>
@@ -9787,8 +9787,8 @@
       <c r="S77" s="11">
         <v>0</v>
       </c>
-      <c r="T77" s="11">
-        <v>0</v>
+      <c r="T77" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="U77" s="11" t="s">
         <v>57</v>
@@ -9856,41 +9856,41 @@
       <c r="AP77" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ77" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR77" s="11">
+      <c r="AQ77" s="11">
         <v>4498314</v>
       </c>
-      <c r="AS77" s="11" t="s">
-        <v>57</v>
+      <c r="AR77" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS77" s="11">
+        <v>3958763</v>
       </c>
       <c r="AT77" s="11">
-        <v>3958763</v>
+        <v>5363461</v>
       </c>
       <c r="AU77" s="11">
-        <v>5363461</v>
+        <v>6074421</v>
       </c>
       <c r="AV77" s="11">
-        <v>6074421</v>
+        <v>6212977</v>
       </c>
       <c r="AW77" s="11">
-        <v>6212977</v>
+        <v>6838221</v>
       </c>
       <c r="AX77" s="11">
-        <v>6838221</v>
+        <v>7023774</v>
       </c>
       <c r="AY77" s="11">
-        <v>7023774</v>
+        <v>6397246</v>
       </c>
       <c r="AZ77" s="11">
-        <v>6397246</v>
+        <v>7307612</v>
       </c>
       <c r="BA77" s="11">
-        <v>7307612</v>
+        <v>8380722</v>
       </c>
       <c r="BB77" s="11">
-        <v>8380722</v>
+        <v>8745469</v>
       </c>
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.3">
@@ -10015,12 +10015,12 @@
       <c r="AP78" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ78" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR78" s="13">
+      <c r="AQ78" s="13">
         <v>11627723</v>
       </c>
+      <c r="AR78" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AS78" s="13" t="s">
         <v>57</v>
       </c>
@@ -10042,11 +10042,11 @@
       <c r="AY78" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AZ78" s="13" t="s">
-        <v>57</v>
+      <c r="AZ78" s="13">
+        <v>9425532</v>
       </c>
       <c r="BA78" s="13">
-        <v>9425532</v>
+        <v>0</v>
       </c>
       <c r="BB78" s="13" t="s">
         <v>57</v>
@@ -10141,41 +10141,41 @@
       <c r="AE79" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF79" s="11" t="s">
-        <v>57</v>
+      <c r="AF79" s="11">
+        <v>2366955</v>
       </c>
       <c r="AG79" s="11">
-        <v>2366955</v>
+        <v>2555052</v>
       </c>
       <c r="AH79" s="11">
-        <v>2555052</v>
+        <v>2789933</v>
       </c>
       <c r="AI79" s="11">
-        <v>2789933</v>
+        <v>2653770</v>
       </c>
       <c r="AJ79" s="11">
-        <v>2653770</v>
+        <v>2615482</v>
       </c>
       <c r="AK79" s="11">
-        <v>2615482</v>
+        <v>3625812</v>
       </c>
       <c r="AL79" s="11">
-        <v>3625812</v>
+        <v>3987388</v>
       </c>
       <c r="AM79" s="11">
-        <v>3987388</v>
+        <v>4479026</v>
       </c>
       <c r="AN79" s="11">
-        <v>4479026</v>
+        <v>3973231</v>
       </c>
       <c r="AO79" s="11">
-        <v>3973231</v>
+        <v>4285125</v>
       </c>
       <c r="AP79" s="11">
-        <v>4285125</v>
-      </c>
-      <c r="AQ79" s="11">
         <v>4868465</v>
+      </c>
+      <c r="AQ79" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR79" s="11" t="s">
         <v>57</v>
@@ -10228,44 +10228,44 @@
       <c r="G80" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H80" s="13" t="s">
-        <v>57</v>
+      <c r="H80" s="13">
+        <v>1537733</v>
       </c>
       <c r="I80" s="13">
-        <v>1537733</v>
+        <v>2471296</v>
       </c>
       <c r="J80" s="13">
-        <v>2471296</v>
+        <v>2105911</v>
       </c>
       <c r="K80" s="13">
-        <v>2105911</v>
+        <v>1985242</v>
       </c>
       <c r="L80" s="13">
-        <v>1985242</v>
+        <v>1930716</v>
       </c>
       <c r="M80" s="13">
-        <v>1930716</v>
+        <v>2354440</v>
       </c>
       <c r="N80" s="13">
-        <v>2354440</v>
+        <v>2187669</v>
       </c>
       <c r="O80" s="13">
-        <v>2187669</v>
+        <v>2219902</v>
       </c>
       <c r="P80" s="13">
-        <v>2219902</v>
+        <v>2260057</v>
       </c>
       <c r="Q80" s="13">
-        <v>2260057</v>
+        <v>2688703</v>
       </c>
       <c r="R80" s="13">
-        <v>2688703</v>
+        <v>2111049</v>
       </c>
       <c r="S80" s="13">
-        <v>2111049</v>
-      </c>
-      <c r="T80" s="13">
         <v>1682232</v>
+      </c>
+      <c r="T80" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="U80" s="13" t="s">
         <v>57</v>
@@ -10423,77 +10423,77 @@
       <c r="S81" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T81" s="11" t="s">
-        <v>57</v>
+      <c r="T81" s="11">
+        <v>1775161</v>
       </c>
       <c r="U81" s="11">
-        <v>1775161</v>
+        <v>1775823</v>
       </c>
       <c r="V81" s="11">
-        <v>1775823</v>
+        <v>1799609</v>
       </c>
       <c r="W81" s="11">
-        <v>1799609</v>
+        <v>1768594</v>
       </c>
       <c r="X81" s="11">
-        <v>1768594</v>
+        <v>1846147</v>
       </c>
       <c r="Y81" s="11">
-        <v>1846147</v>
+        <v>2058722</v>
       </c>
       <c r="Z81" s="11">
-        <v>2058722</v>
+        <v>2218139</v>
       </c>
       <c r="AA81" s="11">
-        <v>2218139</v>
+        <v>2309734</v>
       </c>
       <c r="AB81" s="11">
-        <v>2309734</v>
+        <v>2487286</v>
       </c>
       <c r="AC81" s="11">
-        <v>2487286</v>
+        <v>2586359</v>
       </c>
       <c r="AD81" s="11">
-        <v>2586359</v>
+        <v>2648158</v>
       </c>
       <c r="AE81" s="11">
-        <v>2648158</v>
+        <v>2661345</v>
       </c>
       <c r="AF81" s="11">
-        <v>2661345</v>
+        <v>2733691</v>
       </c>
       <c r="AG81" s="11">
-        <v>2733691</v>
+        <v>2840968</v>
       </c>
       <c r="AH81" s="11">
-        <v>2840968</v>
+        <v>2970814</v>
       </c>
       <c r="AI81" s="11">
-        <v>2970814</v>
+        <v>3927773</v>
       </c>
       <c r="AJ81" s="11">
-        <v>3927773</v>
+        <v>3867363</v>
       </c>
       <c r="AK81" s="11">
-        <v>3867363</v>
+        <v>3931861</v>
       </c>
       <c r="AL81" s="11">
-        <v>3931861</v>
+        <v>4123705</v>
       </c>
       <c r="AM81" s="11">
-        <v>4123705</v>
+        <v>4046844</v>
       </c>
       <c r="AN81" s="11">
-        <v>4046844</v>
+        <v>4375413</v>
       </c>
       <c r="AO81" s="11">
-        <v>4375413</v>
+        <v>4157583</v>
       </c>
       <c r="AP81" s="11">
-        <v>4157583</v>
-      </c>
-      <c r="AQ81" s="11">
         <v>3548780</v>
+      </c>
+      <c r="AQ81" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR81" s="11" t="s">
         <v>57</v>
@@ -10546,44 +10546,44 @@
       <c r="G82" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H82" s="13" t="s">
-        <v>57</v>
+      <c r="H82" s="13">
+        <v>1172741</v>
       </c>
       <c r="I82" s="13">
-        <v>1172741</v>
+        <v>1241725</v>
       </c>
       <c r="J82" s="13">
-        <v>1241725</v>
+        <v>1270597</v>
       </c>
       <c r="K82" s="13">
-        <v>1270597</v>
+        <v>1287713</v>
       </c>
       <c r="L82" s="13">
-        <v>1287713</v>
+        <v>1267982</v>
       </c>
       <c r="M82" s="13">
-        <v>1267982</v>
+        <v>1664005</v>
       </c>
       <c r="N82" s="13">
-        <v>1664005</v>
+        <v>1886121</v>
       </c>
       <c r="O82" s="13">
-        <v>1886121</v>
+        <v>1916535</v>
       </c>
       <c r="P82" s="13">
-        <v>1916535</v>
+        <v>1905905</v>
       </c>
       <c r="Q82" s="13">
-        <v>1905905</v>
+        <v>1828819</v>
       </c>
       <c r="R82" s="13">
-        <v>1828819</v>
+        <v>1864394</v>
       </c>
       <c r="S82" s="13">
-        <v>1864394</v>
-      </c>
-      <c r="T82" s="13">
         <v>1595914</v>
+      </c>
+      <c r="T82" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="U82" s="13" t="s">
         <v>57</v>
@@ -10697,16 +10697,16 @@
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11">
-        <v>1298779</v>
+        <v>1400635</v>
       </c>
       <c r="F83" s="11">
-        <v>1400635</v>
+        <v>1311636</v>
       </c>
       <c r="G83" s="11">
-        <v>1311636</v>
-      </c>
-      <c r="H83" s="11">
         <v>1134260</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="I83" s="11" t="s">
         <v>57</v>
@@ -10856,17 +10856,17 @@
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13">
-        <v>2334431</v>
+        <v>1591601</v>
       </c>
       <c r="F84" s="13">
-        <v>1591601</v>
+        <v>1591367</v>
       </c>
       <c r="G84" s="13">
-        <v>1591367</v>
-      </c>
-      <c r="H84" s="13">
         <v>1875353</v>
       </c>
+      <c r="H84" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="I84" s="13" t="s">
         <v>57</v>
       </c>
@@ -10900,44 +10900,44 @@
       <c r="S84" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T84" s="13" t="s">
-        <v>57</v>
+      <c r="T84" s="13">
+        <v>2550597</v>
       </c>
       <c r="U84" s="13">
-        <v>2550597</v>
+        <v>1987359</v>
       </c>
       <c r="V84" s="13">
-        <v>1987359</v>
+        <v>2798350</v>
       </c>
       <c r="W84" s="13">
-        <v>2798350</v>
+        <v>2258684</v>
       </c>
       <c r="X84" s="13">
-        <v>2258684</v>
+        <v>1746486</v>
       </c>
       <c r="Y84" s="13">
-        <v>1746486</v>
+        <v>1949428</v>
       </c>
       <c r="Z84" s="13">
-        <v>1949428</v>
+        <v>2152369</v>
       </c>
       <c r="AA84" s="13">
-        <v>2152369</v>
+        <v>2044340</v>
       </c>
       <c r="AB84" s="13">
-        <v>2044340</v>
+        <v>2378947</v>
       </c>
       <c r="AC84" s="13">
-        <v>2378947</v>
+        <v>2459242</v>
       </c>
       <c r="AD84" s="13">
-        <v>2459242</v>
+        <v>2701410</v>
       </c>
       <c r="AE84" s="13">
-        <v>2701410</v>
-      </c>
-      <c r="AF84" s="13">
         <v>2600920</v>
+      </c>
+      <c r="AF84" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AG84" s="13" t="s">
         <v>57</v>
@@ -11116,53 +11116,53 @@
       <c r="AL85" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM85" s="11" t="s">
-        <v>57</v>
+      <c r="AM85" s="11">
+        <v>4711667</v>
       </c>
       <c r="AN85" s="11">
-        <v>4711667</v>
+        <v>4436514</v>
       </c>
       <c r="AO85" s="11">
-        <v>4436514</v>
+        <v>4349253</v>
       </c>
       <c r="AP85" s="11">
-        <v>4349253</v>
+        <v>4353675</v>
       </c>
       <c r="AQ85" s="11">
-        <v>4353675</v>
+        <v>4285762</v>
       </c>
       <c r="AR85" s="11">
-        <v>4285762</v>
+        <v>4581665</v>
       </c>
       <c r="AS85" s="11">
-        <v>4581665</v>
+        <v>4963447</v>
       </c>
       <c r="AT85" s="11">
-        <v>4963447</v>
+        <v>5240928</v>
       </c>
       <c r="AU85" s="11">
-        <v>5240928</v>
+        <v>5186221</v>
       </c>
       <c r="AV85" s="11">
-        <v>5186221</v>
+        <v>5346979</v>
       </c>
       <c r="AW85" s="11">
-        <v>5346979</v>
+        <v>5575887</v>
       </c>
       <c r="AX85" s="11">
-        <v>5575887</v>
+        <v>5411245</v>
       </c>
       <c r="AY85" s="11">
-        <v>5411245</v>
+        <v>5550369</v>
       </c>
       <c r="AZ85" s="11">
-        <v>5550369</v>
+        <v>5315890</v>
       </c>
       <c r="BA85" s="11">
-        <v>5315890</v>
+        <v>5366441</v>
       </c>
       <c r="BB85" s="11">
-        <v>5366441</v>
+        <v>5523909</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -11290,11 +11290,11 @@
       <c r="AQ86" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR86" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS86" s="13">
+      <c r="AR86" s="13">
         <v>5246825</v>
+      </c>
+      <c r="AS86" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT86" s="13" t="s">
         <v>57</v>
@@ -11503,11 +11503,11 @@
       <c r="AP88" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ88" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR88" s="11">
-        <v>0</v>
+      <c r="AQ88" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR88" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS88" s="11" t="s">
         <v>57</v>

--- a/database/industries/siman/silam/product/monthly.xlsx
+++ b/database/industries/siman/silam/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\silam\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\silam\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF83FD7F-31BB-473B-B13D-4E3D3C1F5A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE86E004-E003-4EA9-93F6-66E4383F0E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="85">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>سیلام-سیمان‌ ایلام‌</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 10 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 11 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 12 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 11 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 12 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 1 منتهی به 1401/11</t>
   </si>
   <si>
     <t>کلینکر</t>
@@ -757,12 +757,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -817,7 +817,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -874,7 +874,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -931,7 +931,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -986,7 +986,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1043,7 +1043,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1155,7 +1155,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1367,7 +1367,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1424,7 +1424,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1444,11 +1444,11 @@
       <c r="H11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>57</v>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
       </c>
       <c r="K11" s="11">
         <v>0</v>
@@ -1471,11 +1471,11 @@
       <c r="Q11" s="11">
         <v>0</v>
       </c>
-      <c r="R11" s="11">
-        <v>0</v>
-      </c>
-      <c r="S11" s="11">
-        <v>0</v>
+      <c r="R11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="T11" s="11" t="s">
         <v>57</v>
@@ -1540,50 +1540,50 @@
       <c r="AN11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO11" s="11" t="s">
-        <v>57</v>
+      <c r="AO11" s="11">
+        <v>79000</v>
       </c>
       <c r="AP11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ11" s="11">
-        <v>79000</v>
-      </c>
-      <c r="AR11" s="11" t="s">
-        <v>57</v>
+      <c r="AQ11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR11" s="11">
+        <v>104365</v>
       </c>
       <c r="AS11" s="11">
-        <v>45195</v>
+        <v>120025</v>
       </c>
       <c r="AT11" s="11">
-        <v>104365</v>
+        <v>103100</v>
       </c>
       <c r="AU11" s="11">
-        <v>120025</v>
+        <v>81275</v>
       </c>
       <c r="AV11" s="11">
-        <v>103100</v>
+        <v>88915</v>
       </c>
       <c r="AW11" s="11">
-        <v>81275</v>
+        <v>41745</v>
       </c>
       <c r="AX11" s="11">
-        <v>88915</v>
+        <v>82635</v>
       </c>
       <c r="AY11" s="11">
-        <v>41745</v>
+        <v>114330</v>
       </c>
       <c r="AZ11" s="11">
-        <v>127850</v>
+        <v>112695</v>
       </c>
       <c r="BA11" s="11">
-        <v>114330</v>
+        <v>120005</v>
       </c>
       <c r="BB11" s="11">
-        <v>112695</v>
+        <v>38660</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1699,14 +1699,14 @@
       <c r="AN12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO12" s="13" t="s">
-        <v>57</v>
+      <c r="AO12" s="13">
+        <v>322</v>
       </c>
       <c r="AP12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ12" s="13">
-        <v>322</v>
+      <c r="AQ12" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AR12" s="13" t="s">
         <v>57</v>
@@ -1714,8 +1714,8 @@
       <c r="AS12" s="13">
         <v>0</v>
       </c>
-      <c r="AT12" s="13" t="s">
-        <v>57</v>
+      <c r="AT12" s="13">
+        <v>0</v>
       </c>
       <c r="AU12" s="13">
         <v>0</v>
@@ -1727,22 +1727,22 @@
         <v>0</v>
       </c>
       <c r="AX12" s="13">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AY12" s="13">
         <v>0</v>
       </c>
       <c r="AZ12" s="13">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="13">
         <v>0</v>
       </c>
-      <c r="BB12" s="13">
-        <v>0</v>
+      <c r="BB12" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1825,45 +1825,45 @@
       <c r="AC13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE13" s="11" t="s">
-        <v>57</v>
+      <c r="AD13" s="11">
+        <v>18072</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>21941</v>
       </c>
       <c r="AF13" s="11">
-        <v>18072</v>
+        <v>5046</v>
       </c>
       <c r="AG13" s="11">
-        <v>21941</v>
+        <v>119840</v>
       </c>
       <c r="AH13" s="11">
-        <v>5046</v>
+        <v>98295</v>
       </c>
       <c r="AI13" s="11">
-        <v>119840</v>
+        <v>59755</v>
       </c>
       <c r="AJ13" s="11">
-        <v>98295</v>
+        <v>63695</v>
       </c>
       <c r="AK13" s="11">
-        <v>59755</v>
+        <v>59075</v>
       </c>
       <c r="AL13" s="11">
-        <v>63695</v>
+        <v>98000</v>
       </c>
       <c r="AM13" s="11">
-        <v>59075</v>
+        <v>113705</v>
       </c>
       <c r="AN13" s="11">
-        <v>98000</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>113705</v>
-      </c>
-      <c r="AP13" s="11">
         <v>74570</v>
       </c>
+      <c r="AO13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP13" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ13" s="11" t="s">
         <v>57</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1912,48 +1912,48 @@
       <c r="E14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>57</v>
+      <c r="F14" s="13">
+        <v>39808</v>
+      </c>
+      <c r="G14" s="13">
+        <v>21402</v>
       </c>
       <c r="H14" s="13">
-        <v>39808</v>
+        <v>6713</v>
       </c>
       <c r="I14" s="13">
-        <v>21402</v>
+        <v>45023</v>
       </c>
       <c r="J14" s="13">
-        <v>6713</v>
+        <v>32382</v>
       </c>
       <c r="K14" s="13">
-        <v>45023</v>
+        <v>23356</v>
       </c>
       <c r="L14" s="13">
-        <v>32382</v>
+        <v>8605</v>
       </c>
       <c r="M14" s="13">
-        <v>23356</v>
+        <v>25302</v>
       </c>
       <c r="N14" s="13">
-        <v>8605</v>
+        <v>13253</v>
       </c>
       <c r="O14" s="13">
-        <v>25302</v>
+        <v>8484</v>
       </c>
       <c r="P14" s="13">
-        <v>13253</v>
+        <v>11242</v>
       </c>
       <c r="Q14" s="13">
-        <v>8484</v>
-      </c>
-      <c r="R14" s="13">
-        <v>11242</v>
-      </c>
-      <c r="S14" s="13">
         <v>8319</v>
       </c>
+      <c r="R14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T14" s="13" t="s">
         <v>57</v>
       </c>
@@ -1984,11 +1984,11 @@
       <c r="AC14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE14" s="13" t="s">
-        <v>57</v>
+      <c r="AD14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="13">
+        <v>0</v>
       </c>
       <c r="AF14" s="13">
         <v>0</v>
@@ -2017,11 +2017,11 @@
       <c r="AN14" s="13">
         <v>0</v>
       </c>
-      <c r="AO14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP14" s="13">
-        <v>0</v>
+      <c r="AO14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP14" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ14" s="13" t="s">
         <v>57</v>
@@ -2060,7 +2060,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2107,81 +2107,81 @@
       <c r="Q15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="R15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="S15" s="11" t="s">
-        <v>57</v>
+      <c r="R15" s="11">
+        <v>37998</v>
+      </c>
+      <c r="S15" s="11">
+        <v>52835</v>
       </c>
       <c r="T15" s="11">
-        <v>37998</v>
+        <v>42447</v>
       </c>
       <c r="U15" s="11">
-        <v>52835</v>
+        <v>36851</v>
       </c>
       <c r="V15" s="11">
-        <v>42447</v>
+        <v>85350</v>
       </c>
       <c r="W15" s="11">
-        <v>36851</v>
+        <v>73012</v>
       </c>
       <c r="X15" s="11">
-        <v>85350</v>
+        <v>50078</v>
       </c>
       <c r="Y15" s="11">
-        <v>73012</v>
+        <v>31619</v>
       </c>
       <c r="Z15" s="11">
-        <v>50078</v>
+        <v>59745</v>
       </c>
       <c r="AA15" s="11">
-        <v>31619</v>
+        <v>51000</v>
       </c>
       <c r="AB15" s="11">
-        <v>59745</v>
+        <v>53800</v>
       </c>
       <c r="AC15" s="11">
-        <v>51000</v>
+        <v>45080</v>
       </c>
       <c r="AD15" s="11">
-        <v>53800</v>
+        <v>68090</v>
       </c>
       <c r="AE15" s="11">
-        <v>45080</v>
+        <v>76516</v>
       </c>
       <c r="AF15" s="11">
-        <v>68090</v>
+        <v>49265</v>
       </c>
       <c r="AG15" s="11">
-        <v>76516</v>
+        <v>84410</v>
       </c>
       <c r="AH15" s="11">
-        <v>49265</v>
+        <v>60140</v>
       </c>
       <c r="AI15" s="11">
-        <v>84410</v>
+        <v>56825</v>
       </c>
       <c r="AJ15" s="11">
-        <v>60140</v>
+        <v>68280</v>
       </c>
       <c r="AK15" s="11">
-        <v>56825</v>
+        <v>59821</v>
       </c>
       <c r="AL15" s="11">
-        <v>68280</v>
+        <v>31111</v>
       </c>
       <c r="AM15" s="11">
-        <v>59821</v>
+        <v>16931</v>
       </c>
       <c r="AN15" s="11">
-        <v>31111</v>
-      </c>
-      <c r="AO15" s="11">
-        <v>16931</v>
-      </c>
-      <c r="AP15" s="11">
         <v>2097</v>
       </c>
+      <c r="AO15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP15" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ15" s="11" t="s">
         <v>57</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2230,48 +2230,48 @@
       <c r="E16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>57</v>
+      <c r="F16" s="13">
+        <v>37516</v>
+      </c>
+      <c r="G16" s="13">
+        <v>51668</v>
       </c>
       <c r="H16" s="13">
-        <v>37516</v>
+        <v>38684</v>
       </c>
       <c r="I16" s="13">
-        <v>51668</v>
+        <v>51374</v>
       </c>
       <c r="J16" s="13">
-        <v>38684</v>
+        <v>51316</v>
       </c>
       <c r="K16" s="13">
-        <v>51374</v>
+        <v>58818</v>
       </c>
       <c r="L16" s="13">
-        <v>51316</v>
+        <v>38093</v>
       </c>
       <c r="M16" s="13">
-        <v>58818</v>
+        <v>54136</v>
       </c>
       <c r="N16" s="13">
-        <v>38093</v>
+        <v>38471</v>
       </c>
       <c r="O16" s="13">
-        <v>54136</v>
+        <v>56777</v>
       </c>
       <c r="P16" s="13">
-        <v>38471</v>
+        <v>48983</v>
       </c>
       <c r="Q16" s="13">
-        <v>56777</v>
-      </c>
-      <c r="R16" s="13">
-        <v>48983</v>
-      </c>
-      <c r="S16" s="13">
         <v>41610</v>
       </c>
+      <c r="R16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T16" s="13" t="s">
         <v>57</v>
       </c>
@@ -2338,14 +2338,14 @@
       <c r="AO16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR16" s="13">
-        <v>0</v>
+      <c r="AP16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS16" s="13" t="s">
         <v>57</v>
@@ -2378,7 +2378,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2387,14 +2387,14 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>33896</v>
-      </c>
-      <c r="F17" s="11">
-        <v>34075</v>
-      </c>
-      <c r="G17" s="11">
         <v>37650</v>
       </c>
+      <c r="F17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="H17" s="11" t="s">
         <v>57</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2546,14 +2546,14 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>18244</v>
-      </c>
-      <c r="F18" s="13">
-        <v>25127</v>
-      </c>
-      <c r="G18" s="13">
         <v>44238</v>
       </c>
+      <c r="F18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="H18" s="13" t="s">
         <v>57</v>
       </c>
@@ -2584,48 +2584,48 @@
       <c r="Q18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="S18" s="13" t="s">
-        <v>57</v>
+      <c r="R18" s="13">
+        <v>5182</v>
+      </c>
+      <c r="S18" s="13">
+        <v>1634</v>
       </c>
       <c r="T18" s="13">
-        <v>5182</v>
+        <v>1313</v>
       </c>
       <c r="U18" s="13">
-        <v>1634</v>
+        <v>17350</v>
       </c>
       <c r="V18" s="13">
-        <v>1313</v>
+        <v>22647</v>
       </c>
       <c r="W18" s="13">
-        <v>17350</v>
+        <v>21230</v>
       </c>
       <c r="X18" s="13">
-        <v>22647</v>
+        <v>21462</v>
       </c>
       <c r="Y18" s="13">
-        <v>21230</v>
+        <v>978</v>
       </c>
       <c r="Z18" s="13">
-        <v>21462</v>
+        <v>475</v>
       </c>
       <c r="AA18" s="13">
-        <v>978</v>
+        <v>871</v>
       </c>
       <c r="AB18" s="13">
-        <v>475</v>
+        <v>14823</v>
       </c>
       <c r="AC18" s="13">
-        <v>871</v>
-      </c>
-      <c r="AD18" s="13">
-        <v>14823</v>
-      </c>
-      <c r="AE18" s="13">
         <v>24554</v>
       </c>
+      <c r="AD18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE18" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AF18" s="13" t="s">
         <v>57</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>65</v>
       </c>
@@ -2800,62 +2800,62 @@
       <c r="AJ19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL19" s="11" t="s">
-        <v>57</v>
+      <c r="AK19" s="11">
+        <v>4008</v>
+      </c>
+      <c r="AL19" s="11">
+        <v>15323</v>
       </c>
       <c r="AM19" s="11">
-        <v>4008</v>
+        <v>27394</v>
       </c>
       <c r="AN19" s="11">
-        <v>15323</v>
+        <v>40798</v>
       </c>
       <c r="AO19" s="11">
-        <v>27394</v>
+        <v>31126</v>
       </c>
       <c r="AP19" s="11">
-        <v>40798</v>
+        <v>28500</v>
       </c>
       <c r="AQ19" s="11">
-        <v>31126</v>
+        <v>42071</v>
       </c>
       <c r="AR19" s="11">
-        <v>28500</v>
+        <v>40262</v>
       </c>
       <c r="AS19" s="11">
-        <v>42596</v>
+        <v>47614</v>
       </c>
       <c r="AT19" s="11">
-        <v>40262</v>
+        <v>41503</v>
       </c>
       <c r="AU19" s="11">
-        <v>47614</v>
+        <v>50167</v>
       </c>
       <c r="AV19" s="11">
-        <v>41503</v>
+        <v>49450</v>
       </c>
       <c r="AW19" s="11">
-        <v>50167</v>
+        <v>87250</v>
       </c>
       <c r="AX19" s="11">
-        <v>49450</v>
+        <v>47118</v>
       </c>
       <c r="AY19" s="11">
-        <v>87250</v>
+        <v>46470</v>
       </c>
       <c r="AZ19" s="11">
-        <v>1660</v>
+        <v>60827</v>
       </c>
       <c r="BA19" s="11">
-        <v>46423</v>
+        <v>45602</v>
       </c>
       <c r="BB19" s="11">
-        <v>60827</v>
+        <v>53230</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>66</v>
       </c>
@@ -2974,15 +2974,15 @@
       <c r="AO20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR20" s="13">
+      <c r="AP20" s="13">
         <v>55920</v>
       </c>
+      <c r="AQ20" s="13">
+        <v>42135</v>
+      </c>
+      <c r="AR20" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AS20" s="13" t="s">
         <v>57</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>67</v>
       </c>
@@ -3071,7 +3071,7 @@
       <c r="BA21" s="9"/>
       <c r="BB21" s="9"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>68</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>70</v>
       </c>
@@ -3311,11 +3311,11 @@
       <c r="AC23" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD23" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE23" s="15" t="s">
-        <v>57</v>
+      <c r="AD23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="15">
+        <v>0</v>
       </c>
       <c r="AF23" s="15">
         <v>0</v>
@@ -3387,164 +3387,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17">
-        <v>52140</v>
+        <v>81888</v>
       </c>
       <c r="F24" s="17">
-        <v>59202</v>
+        <v>77324</v>
       </c>
       <c r="G24" s="17">
-        <v>81888</v>
+        <v>73070</v>
       </c>
       <c r="H24" s="17">
-        <v>77324</v>
+        <v>45397</v>
       </c>
       <c r="I24" s="17">
-        <v>73070</v>
+        <v>96397</v>
       </c>
       <c r="J24" s="17">
-        <v>45397</v>
+        <v>83698</v>
       </c>
       <c r="K24" s="17">
-        <v>96397</v>
+        <v>82174</v>
       </c>
       <c r="L24" s="17">
-        <v>83698</v>
+        <v>46698</v>
       </c>
       <c r="M24" s="17">
-        <v>82174</v>
+        <v>79438</v>
       </c>
       <c r="N24" s="17">
-        <v>46698</v>
+        <v>51724</v>
       </c>
       <c r="O24" s="17">
-        <v>79438</v>
+        <v>65261</v>
       </c>
       <c r="P24" s="17">
-        <v>51724</v>
+        <v>60225</v>
       </c>
       <c r="Q24" s="17">
-        <v>65261</v>
+        <v>49929</v>
       </c>
       <c r="R24" s="17">
-        <v>60225</v>
+        <v>43180</v>
       </c>
       <c r="S24" s="17">
-        <v>49929</v>
+        <v>54469</v>
       </c>
       <c r="T24" s="17">
-        <v>43180</v>
+        <v>43760</v>
       </c>
       <c r="U24" s="17">
-        <v>54469</v>
+        <v>54201</v>
       </c>
       <c r="V24" s="17">
-        <v>43760</v>
+        <v>107997</v>
       </c>
       <c r="W24" s="17">
-        <v>54201</v>
+        <v>94242</v>
       </c>
       <c r="X24" s="17">
-        <v>107997</v>
+        <v>71540</v>
       </c>
       <c r="Y24" s="17">
-        <v>94242</v>
+        <v>32597</v>
       </c>
       <c r="Z24" s="17">
-        <v>71540</v>
+        <v>60220</v>
       </c>
       <c r="AA24" s="17">
-        <v>32597</v>
+        <v>51871</v>
       </c>
       <c r="AB24" s="17">
-        <v>60220</v>
+        <v>68623</v>
       </c>
       <c r="AC24" s="17">
-        <v>51871</v>
+        <v>69634</v>
       </c>
       <c r="AD24" s="17">
-        <v>68623</v>
+        <v>86162</v>
       </c>
       <c r="AE24" s="17">
-        <v>69634</v>
+        <v>98457</v>
       </c>
       <c r="AF24" s="17">
-        <v>86162</v>
+        <v>54311</v>
       </c>
       <c r="AG24" s="17">
-        <v>98457</v>
+        <v>204250</v>
       </c>
       <c r="AH24" s="17">
-        <v>54311</v>
+        <v>158435</v>
       </c>
       <c r="AI24" s="17">
-        <v>204250</v>
+        <v>116580</v>
       </c>
       <c r="AJ24" s="17">
-        <v>158435</v>
+        <v>131975</v>
       </c>
       <c r="AK24" s="17">
-        <v>116580</v>
+        <v>122904</v>
       </c>
       <c r="AL24" s="17">
-        <v>131975</v>
+        <v>144434</v>
       </c>
       <c r="AM24" s="17">
-        <v>122904</v>
+        <v>158030</v>
       </c>
       <c r="AN24" s="17">
-        <v>144434</v>
+        <v>117465</v>
       </c>
       <c r="AO24" s="17">
-        <v>158030</v>
+        <v>110448</v>
       </c>
       <c r="AP24" s="17">
-        <v>117465</v>
+        <v>84420</v>
       </c>
       <c r="AQ24" s="17">
-        <v>110448</v>
+        <v>84206</v>
       </c>
       <c r="AR24" s="17">
-        <v>84420</v>
+        <v>144627</v>
       </c>
       <c r="AS24" s="17">
-        <v>87791</v>
+        <v>167639</v>
       </c>
       <c r="AT24" s="17">
-        <v>144627</v>
+        <v>144603</v>
       </c>
       <c r="AU24" s="17">
-        <v>167639</v>
+        <v>131442</v>
       </c>
       <c r="AV24" s="17">
-        <v>144603</v>
+        <v>138365</v>
       </c>
       <c r="AW24" s="17">
-        <v>131442</v>
+        <v>128995</v>
       </c>
       <c r="AX24" s="17">
-        <v>138365</v>
+        <v>129800</v>
       </c>
       <c r="AY24" s="17">
-        <v>128995</v>
+        <v>160800</v>
       </c>
       <c r="AZ24" s="17">
-        <v>129557</v>
+        <v>173522</v>
       </c>
       <c r="BA24" s="17">
-        <v>160753</v>
+        <v>165607</v>
       </c>
       <c r="BB24" s="17">
-        <v>173522</v>
+        <v>91890</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3599,7 +3599,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3654,7 +3654,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3709,7 +3709,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>72</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3921,7 +3921,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>72</v>
       </c>
@@ -3978,7 +3978,7 @@
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>55</v>
       </c>
@@ -3998,11 +3998,11 @@
       <c r="H31" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I31" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>57</v>
+      <c r="I31" s="11">
+        <v>0</v>
+      </c>
+      <c r="J31" s="11">
+        <v>0</v>
       </c>
       <c r="K31" s="11">
         <v>0</v>
@@ -4025,11 +4025,11 @@
       <c r="Q31" s="11">
         <v>0</v>
       </c>
-      <c r="R31" s="11">
-        <v>0</v>
-      </c>
-      <c r="S31" s="11">
-        <v>0</v>
+      <c r="R31" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S31" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="T31" s="11" t="s">
         <v>57</v>
@@ -4094,50 +4094,50 @@
       <c r="AN31" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO31" s="11" t="s">
-        <v>57</v>
+      <c r="AO31" s="11">
+        <v>50115</v>
       </c>
       <c r="AP31" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ31" s="11">
-        <v>50115</v>
-      </c>
-      <c r="AR31" s="11" t="s">
-        <v>57</v>
+      <c r="AQ31" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR31" s="11">
+        <v>44178</v>
       </c>
       <c r="AS31" s="11">
-        <v>17186</v>
+        <v>38806</v>
       </c>
       <c r="AT31" s="11">
-        <v>44178</v>
+        <v>71816</v>
       </c>
       <c r="AU31" s="11">
-        <v>38806</v>
+        <v>66424</v>
       </c>
       <c r="AV31" s="11">
-        <v>71816</v>
+        <v>37823</v>
       </c>
       <c r="AW31" s="11">
-        <v>66424</v>
+        <v>22583</v>
       </c>
       <c r="AX31" s="11">
-        <v>37823</v>
+        <v>42404</v>
       </c>
       <c r="AY31" s="11">
-        <v>22583</v>
+        <v>39911</v>
       </c>
       <c r="AZ31" s="11">
-        <v>42404</v>
+        <v>51712</v>
       </c>
       <c r="BA31" s="11">
-        <v>39911</v>
+        <v>17488</v>
       </c>
       <c r="BB31" s="11">
-        <v>51712</v>
+        <v>38386</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>58</v>
       </c>
@@ -4253,14 +4253,14 @@
       <c r="AN32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO32" s="13" t="s">
-        <v>57</v>
+      <c r="AO32" s="13">
+        <v>505</v>
       </c>
       <c r="AP32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ32" s="13">
-        <v>505</v>
+      <c r="AQ32" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AR32" s="13" t="s">
         <v>57</v>
@@ -4268,8 +4268,8 @@
       <c r="AS32" s="13">
         <v>0</v>
       </c>
-      <c r="AT32" s="13" t="s">
-        <v>57</v>
+      <c r="AT32" s="13">
+        <v>0</v>
       </c>
       <c r="AU32" s="13">
         <v>0</v>
@@ -4281,22 +4281,22 @@
         <v>0</v>
       </c>
       <c r="AX32" s="13">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AY32" s="13">
         <v>0</v>
       </c>
       <c r="AZ32" s="13">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="BA32" s="13">
         <v>0</v>
       </c>
-      <c r="BB32" s="13">
-        <v>0</v>
+      <c r="BB32" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>59</v>
       </c>
@@ -4379,45 +4379,45 @@
       <c r="AC33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD33" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE33" s="11" t="s">
-        <v>57</v>
+      <c r="AD33" s="11">
+        <v>18072</v>
+      </c>
+      <c r="AE33" s="11">
+        <v>21941</v>
       </c>
       <c r="AF33" s="11">
-        <v>18072</v>
+        <v>5046</v>
       </c>
       <c r="AG33" s="11">
-        <v>21941</v>
+        <v>17304</v>
       </c>
       <c r="AH33" s="11">
-        <v>5046</v>
+        <v>18163</v>
       </c>
       <c r="AI33" s="11">
-        <v>17304</v>
+        <v>29234</v>
       </c>
       <c r="AJ33" s="11">
-        <v>18163</v>
+        <v>7057</v>
       </c>
       <c r="AK33" s="11">
-        <v>29234</v>
+        <v>14122</v>
       </c>
       <c r="AL33" s="11">
-        <v>7057</v>
+        <v>2727</v>
       </c>
       <c r="AM33" s="11">
-        <v>14122</v>
+        <v>31053</v>
       </c>
       <c r="AN33" s="11">
-        <v>2727</v>
-      </c>
-      <c r="AO33" s="11">
-        <v>31053</v>
-      </c>
-      <c r="AP33" s="11">
         <v>33877</v>
       </c>
+      <c r="AO33" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP33" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ33" s="11" t="s">
         <v>57</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>60</v>
       </c>
@@ -4466,48 +4466,48 @@
       <c r="E34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>57</v>
+      <c r="F34" s="13">
+        <v>55933</v>
+      </c>
+      <c r="G34" s="13">
+        <v>23028</v>
       </c>
       <c r="H34" s="13">
-        <v>55933</v>
+        <v>5363</v>
       </c>
       <c r="I34" s="13">
-        <v>23028</v>
+        <v>50076</v>
       </c>
       <c r="J34" s="13">
-        <v>5363</v>
+        <v>31941</v>
       </c>
       <c r="K34" s="13">
-        <v>50076</v>
+        <v>16677</v>
       </c>
       <c r="L34" s="13">
-        <v>31941</v>
+        <v>9602</v>
       </c>
       <c r="M34" s="13">
-        <v>16677</v>
+        <v>16853</v>
       </c>
       <c r="N34" s="13">
-        <v>9602</v>
+        <v>16208</v>
       </c>
       <c r="O34" s="13">
-        <v>16853</v>
+        <v>8259</v>
       </c>
       <c r="P34" s="13">
-        <v>16208</v>
+        <v>10716</v>
       </c>
       <c r="Q34" s="13">
-        <v>8259</v>
-      </c>
-      <c r="R34" s="13">
-        <v>10716</v>
-      </c>
-      <c r="S34" s="13">
         <v>8780</v>
       </c>
+      <c r="R34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S34" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T34" s="13" t="s">
         <v>57</v>
       </c>
@@ -4538,11 +4538,11 @@
       <c r="AC34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD34" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE34" s="13" t="s">
-        <v>57</v>
+      <c r="AD34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="13">
+        <v>0</v>
       </c>
       <c r="AF34" s="13">
         <v>0</v>
@@ -4571,11 +4571,11 @@
       <c r="AN34" s="13">
         <v>0</v>
       </c>
-      <c r="AO34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP34" s="13">
-        <v>0</v>
+      <c r="AO34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP34" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ34" s="13" t="s">
         <v>57</v>
@@ -4614,7 +4614,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>61</v>
       </c>
@@ -4661,81 +4661,81 @@
       <c r="Q35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="R35" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="S35" s="11" t="s">
-        <v>57</v>
+      <c r="R35" s="11">
+        <v>37827</v>
+      </c>
+      <c r="S35" s="11">
+        <v>47525</v>
       </c>
       <c r="T35" s="11">
-        <v>37827</v>
+        <v>46060</v>
       </c>
       <c r="U35" s="11">
-        <v>47525</v>
+        <v>42151</v>
       </c>
       <c r="V35" s="11">
-        <v>46060</v>
+        <v>68936</v>
       </c>
       <c r="W35" s="11">
-        <v>42151</v>
+        <v>85982</v>
       </c>
       <c r="X35" s="11">
-        <v>68936</v>
+        <v>58559</v>
       </c>
       <c r="Y35" s="11">
-        <v>85982</v>
+        <v>55835</v>
       </c>
       <c r="Z35" s="11">
-        <v>58559</v>
+        <v>69173</v>
       </c>
       <c r="AA35" s="11">
-        <v>55835</v>
+        <v>59235</v>
       </c>
       <c r="AB35" s="11">
-        <v>69173</v>
+        <v>50372</v>
       </c>
       <c r="AC35" s="11">
-        <v>59235</v>
+        <v>47733</v>
       </c>
       <c r="AD35" s="11">
-        <v>50372</v>
+        <v>64030</v>
       </c>
       <c r="AE35" s="11">
-        <v>47733</v>
+        <v>77040</v>
       </c>
       <c r="AF35" s="11">
-        <v>64030</v>
+        <v>60132</v>
       </c>
       <c r="AG35" s="11">
-        <v>77040</v>
+        <v>74626</v>
       </c>
       <c r="AH35" s="11">
-        <v>60132</v>
+        <v>70923</v>
       </c>
       <c r="AI35" s="11">
-        <v>74626</v>
+        <v>56972</v>
       </c>
       <c r="AJ35" s="11">
-        <v>70923</v>
+        <v>64678</v>
       </c>
       <c r="AK35" s="11">
-        <v>56972</v>
+        <v>48902</v>
       </c>
       <c r="AL35" s="11">
-        <v>64678</v>
+        <v>30862</v>
       </c>
       <c r="AM35" s="11">
-        <v>48902</v>
+        <v>16118</v>
       </c>
       <c r="AN35" s="11">
-        <v>30862</v>
-      </c>
-      <c r="AO35" s="11">
-        <v>16118</v>
-      </c>
-      <c r="AP35" s="11">
         <v>2296</v>
       </c>
+      <c r="AO35" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP35" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ35" s="11" t="s">
         <v>57</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>62</v>
       </c>
@@ -4784,48 +4784,48 @@
       <c r="E36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>57</v>
+      <c r="F36" s="13">
+        <v>49635</v>
+      </c>
+      <c r="G36" s="13">
+        <v>60180</v>
       </c>
       <c r="H36" s="13">
-        <v>49635</v>
+        <v>34908</v>
       </c>
       <c r="I36" s="13">
-        <v>60180</v>
+        <v>67908</v>
       </c>
       <c r="J36" s="13">
-        <v>34908</v>
+        <v>48910</v>
       </c>
       <c r="K36" s="13">
-        <v>67908</v>
+        <v>52730</v>
       </c>
       <c r="L36" s="13">
-        <v>48910</v>
+        <v>47858</v>
       </c>
       <c r="M36" s="13">
-        <v>52730</v>
+        <v>49554</v>
       </c>
       <c r="N36" s="13">
-        <v>47858</v>
+        <v>54126</v>
       </c>
       <c r="O36" s="13">
-        <v>49554</v>
+        <v>57004</v>
       </c>
       <c r="P36" s="13">
-        <v>54126</v>
+        <v>45035</v>
       </c>
       <c r="Q36" s="13">
-        <v>57004</v>
-      </c>
-      <c r="R36" s="13">
-        <v>45035</v>
-      </c>
-      <c r="S36" s="13">
         <v>58104</v>
       </c>
+      <c r="R36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S36" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T36" s="13" t="s">
         <v>57</v>
       </c>
@@ -4892,14 +4892,14 @@
       <c r="AO36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR36" s="13">
-        <v>0</v>
+      <c r="AP36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR36" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS36" s="13" t="s">
         <v>57</v>
@@ -4932,7 +4932,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>63</v>
       </c>
@@ -4941,14 +4941,14 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>45071</v>
-      </c>
-      <c r="F37" s="11">
-        <v>32339</v>
-      </c>
-      <c r="G37" s="11">
         <v>50134</v>
       </c>
+      <c r="F37" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="H37" s="11" t="s">
         <v>57</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>64</v>
       </c>
@@ -5100,14 +5100,14 @@
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
-        <v>20169</v>
-      </c>
-      <c r="F38" s="13">
-        <v>20757</v>
-      </c>
-      <c r="G38" s="13">
         <v>38637</v>
       </c>
+      <c r="F38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="H38" s="13" t="s">
         <v>57</v>
       </c>
@@ -5138,48 +5138,48 @@
       <c r="Q38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="S38" s="13" t="s">
-        <v>57</v>
+      <c r="R38" s="13">
+        <v>5356</v>
+      </c>
+      <c r="S38" s="13">
+        <v>1503</v>
       </c>
       <c r="T38" s="13">
-        <v>5356</v>
+        <v>1091</v>
       </c>
       <c r="U38" s="13">
-        <v>1503</v>
+        <v>13646</v>
       </c>
       <c r="V38" s="13">
-        <v>1091</v>
+        <v>18993</v>
       </c>
       <c r="W38" s="13">
-        <v>13646</v>
+        <v>22364</v>
       </c>
       <c r="X38" s="13">
-        <v>18993</v>
+        <v>24677</v>
       </c>
       <c r="Y38" s="13">
-        <v>22364</v>
+        <v>1917</v>
       </c>
       <c r="Z38" s="13">
-        <v>24677</v>
+        <v>475</v>
       </c>
       <c r="AA38" s="13">
-        <v>1917</v>
+        <v>871</v>
       </c>
       <c r="AB38" s="13">
-        <v>475</v>
+        <v>14823</v>
       </c>
       <c r="AC38" s="13">
-        <v>871</v>
-      </c>
-      <c r="AD38" s="13">
-        <v>14823</v>
-      </c>
-      <c r="AE38" s="13">
         <v>24554</v>
       </c>
+      <c r="AD38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE38" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AF38" s="13" t="s">
         <v>57</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>65</v>
       </c>
@@ -5354,62 +5354,62 @@
       <c r="AJ39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL39" s="11" t="s">
-        <v>57</v>
+      <c r="AK39" s="11">
+        <v>3281</v>
+      </c>
+      <c r="AL39" s="11">
+        <v>15145</v>
       </c>
       <c r="AM39" s="11">
-        <v>3281</v>
+        <v>27844</v>
       </c>
       <c r="AN39" s="11">
-        <v>15145</v>
+        <v>44631</v>
       </c>
       <c r="AO39" s="11">
-        <v>27844</v>
+        <v>39281</v>
       </c>
       <c r="AP39" s="11">
-        <v>44631</v>
+        <v>29462</v>
       </c>
       <c r="AQ39" s="11">
-        <v>39281</v>
+        <v>40528</v>
       </c>
       <c r="AR39" s="11">
-        <v>29462</v>
+        <v>37036</v>
       </c>
       <c r="AS39" s="11">
-        <v>39907</v>
+        <v>48319</v>
       </c>
       <c r="AT39" s="11">
-        <v>37036</v>
+        <v>49708</v>
       </c>
       <c r="AU39" s="11">
-        <v>48319</v>
+        <v>47261</v>
       </c>
       <c r="AV39" s="11">
-        <v>49708</v>
+        <v>48621</v>
       </c>
       <c r="AW39" s="11">
-        <v>47261</v>
+        <v>41881</v>
       </c>
       <c r="AX39" s="11">
-        <v>48621</v>
+        <v>44411</v>
       </c>
       <c r="AY39" s="11">
-        <v>41881</v>
+        <v>56181</v>
       </c>
       <c r="AZ39" s="11">
-        <v>44411</v>
+        <v>53891</v>
       </c>
       <c r="BA39" s="11">
-        <v>56181</v>
+        <v>47657</v>
       </c>
       <c r="BB39" s="11">
-        <v>53891</v>
+        <v>49271</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>66</v>
       </c>
@@ -5528,15 +5528,15 @@
       <c r="AO40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP40" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ40" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR40" s="13">
+      <c r="AP40" s="13">
         <v>55833</v>
       </c>
+      <c r="AQ40" s="13">
+        <v>17460</v>
+      </c>
+      <c r="AR40" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AS40" s="13" t="s">
         <v>57</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
         <v>67</v>
       </c>
@@ -5625,7 +5625,7 @@
       <c r="BA41" s="9"/>
       <c r="BB41" s="9"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>68</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>70</v>
       </c>
@@ -5865,11 +5865,11 @@
       <c r="AC43" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD43" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE43" s="15" t="s">
-        <v>57</v>
+      <c r="AD43" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="15">
+        <v>0</v>
       </c>
       <c r="AF43" s="15">
         <v>0</v>
@@ -5941,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
         <v>73</v>
       </c>
@@ -5998,7 +5998,7 @@
       <c r="BA44" s="19"/>
       <c r="BB44" s="19"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>74</v>
       </c>
@@ -6079,11 +6079,11 @@
       <c r="AC45" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AD45" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE45" s="17" t="s">
-        <v>57</v>
+      <c r="AD45" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="17">
+        <v>0</v>
       </c>
       <c r="AF45" s="17">
         <v>0</v>
@@ -6155,164 +6155,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="14" t="s">
         <v>71</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15">
-        <v>65240</v>
+        <v>88771</v>
       </c>
       <c r="F46" s="15">
-        <v>53096</v>
+        <v>105568</v>
       </c>
       <c r="G46" s="15">
-        <v>88771</v>
+        <v>83208</v>
       </c>
       <c r="H46" s="15">
-        <v>105568</v>
+        <v>40271</v>
       </c>
       <c r="I46" s="15">
-        <v>83208</v>
+        <v>117984</v>
       </c>
       <c r="J46" s="15">
-        <v>40271</v>
+        <v>80851</v>
       </c>
       <c r="K46" s="15">
-        <v>117984</v>
+        <v>69407</v>
       </c>
       <c r="L46" s="15">
-        <v>80851</v>
+        <v>57460</v>
       </c>
       <c r="M46" s="15">
-        <v>69407</v>
+        <v>66407</v>
       </c>
       <c r="N46" s="15">
-        <v>57460</v>
+        <v>70334</v>
       </c>
       <c r="O46" s="15">
-        <v>66407</v>
+        <v>65263</v>
       </c>
       <c r="P46" s="15">
-        <v>70334</v>
+        <v>55751</v>
       </c>
       <c r="Q46" s="15">
-        <v>65263</v>
+        <v>66884</v>
       </c>
       <c r="R46" s="15">
-        <v>55751</v>
+        <v>43183</v>
       </c>
       <c r="S46" s="15">
-        <v>66884</v>
+        <v>49028</v>
       </c>
       <c r="T46" s="15">
-        <v>43183</v>
+        <v>47151</v>
       </c>
       <c r="U46" s="15">
-        <v>49028</v>
+        <v>55797</v>
       </c>
       <c r="V46" s="15">
-        <v>47151</v>
+        <v>87929</v>
       </c>
       <c r="W46" s="15">
-        <v>55797</v>
+        <v>108346</v>
       </c>
       <c r="X46" s="15">
-        <v>87929</v>
+        <v>83236</v>
       </c>
       <c r="Y46" s="15">
-        <v>108346</v>
+        <v>57752</v>
       </c>
       <c r="Z46" s="15">
-        <v>83236</v>
+        <v>69648</v>
       </c>
       <c r="AA46" s="15">
-        <v>57752</v>
+        <v>60106</v>
       </c>
       <c r="AB46" s="15">
-        <v>69648</v>
+        <v>65195</v>
       </c>
       <c r="AC46" s="15">
-        <v>60106</v>
+        <v>72287</v>
       </c>
       <c r="AD46" s="15">
-        <v>65195</v>
+        <v>82102</v>
       </c>
       <c r="AE46" s="15">
-        <v>72287</v>
+        <v>98982</v>
       </c>
       <c r="AF46" s="15">
-        <v>82102</v>
+        <v>65178</v>
       </c>
       <c r="AG46" s="15">
-        <v>98982</v>
+        <v>91930</v>
       </c>
       <c r="AH46" s="15">
-        <v>65178</v>
+        <v>89086</v>
       </c>
       <c r="AI46" s="15">
-        <v>91930</v>
+        <v>86206</v>
       </c>
       <c r="AJ46" s="15">
-        <v>89086</v>
+        <v>71735</v>
       </c>
       <c r="AK46" s="15">
-        <v>86206</v>
+        <v>66305</v>
       </c>
       <c r="AL46" s="15">
-        <v>71735</v>
+        <v>48734</v>
       </c>
       <c r="AM46" s="15">
-        <v>66305</v>
+        <v>75014</v>
       </c>
       <c r="AN46" s="15">
-        <v>48734</v>
+        <v>80804</v>
       </c>
       <c r="AO46" s="15">
-        <v>75014</v>
+        <v>89901</v>
       </c>
       <c r="AP46" s="15">
-        <v>80804</v>
+        <v>85295</v>
       </c>
       <c r="AQ46" s="15">
-        <v>89901</v>
+        <v>57988</v>
       </c>
       <c r="AR46" s="15">
-        <v>85295</v>
+        <v>81214</v>
       </c>
       <c r="AS46" s="15">
-        <v>57093</v>
+        <v>87125</v>
       </c>
       <c r="AT46" s="15">
-        <v>81214</v>
+        <v>121524</v>
       </c>
       <c r="AU46" s="15">
-        <v>87125</v>
+        <v>113685</v>
       </c>
       <c r="AV46" s="15">
-        <v>121524</v>
+        <v>86443</v>
       </c>
       <c r="AW46" s="15">
-        <v>113685</v>
+        <v>64464</v>
       </c>
       <c r="AX46" s="15">
-        <v>86443</v>
+        <v>86862</v>
       </c>
       <c r="AY46" s="15">
-        <v>64464</v>
+        <v>96092</v>
       </c>
       <c r="AZ46" s="15">
-        <v>86862</v>
+        <v>105603</v>
       </c>
       <c r="BA46" s="15">
-        <v>96092</v>
+        <v>65145</v>
       </c>
       <c r="BB46" s="15">
-        <v>105603</v>
+        <v>87657</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6367,7 +6367,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6422,7 +6422,7 @@
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6477,7 +6477,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
         <v>75</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6689,7 +6689,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>75</v>
       </c>
@@ -6746,7 +6746,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>55</v>
       </c>
@@ -6766,11 +6766,11 @@
       <c r="H53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J53" s="11" t="s">
-        <v>57</v>
+      <c r="I53" s="11">
+        <v>0</v>
+      </c>
+      <c r="J53" s="11">
+        <v>0</v>
       </c>
       <c r="K53" s="11">
         <v>0</v>
@@ -6793,11 +6793,11 @@
       <c r="Q53" s="11">
         <v>0</v>
       </c>
-      <c r="R53" s="11">
-        <v>0</v>
-      </c>
-      <c r="S53" s="11">
-        <v>0</v>
+      <c r="R53" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S53" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="T53" s="11" t="s">
         <v>57</v>
@@ -6862,50 +6862,50 @@
       <c r="AN53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO53" s="11" t="s">
-        <v>57</v>
+      <c r="AO53" s="11">
+        <v>225433</v>
       </c>
       <c r="AP53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ53" s="11">
-        <v>225433</v>
-      </c>
-      <c r="AR53" s="11" t="s">
-        <v>57</v>
+      <c r="AQ53" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR53" s="11">
+        <v>236947</v>
       </c>
       <c r="AS53" s="11">
-        <v>72628</v>
+        <v>235724</v>
       </c>
       <c r="AT53" s="11">
-        <v>236947</v>
+        <v>446140</v>
       </c>
       <c r="AU53" s="11">
-        <v>235724</v>
+        <v>454222</v>
       </c>
       <c r="AV53" s="11">
-        <v>446305</v>
+        <v>265659</v>
       </c>
       <c r="AW53" s="11">
-        <v>454222</v>
+        <v>144469</v>
       </c>
       <c r="AX53" s="11">
-        <v>265659</v>
+        <v>309872</v>
       </c>
       <c r="AY53" s="11">
-        <v>144469</v>
+        <v>334483</v>
       </c>
       <c r="AZ53" s="11">
-        <v>309872</v>
+        <v>452242</v>
       </c>
       <c r="BA53" s="11">
-        <v>334483</v>
+        <v>127959</v>
       </c>
       <c r="BB53" s="11">
-        <v>452242</v>
+        <v>380049</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>58</v>
       </c>
@@ -7021,14 +7021,14 @@
       <c r="AN54" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO54" s="13" t="s">
-        <v>57</v>
+      <c r="AO54" s="13">
+        <v>5872</v>
       </c>
       <c r="AP54" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ54" s="13">
-        <v>5872</v>
+      <c r="AQ54" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AR54" s="13" t="s">
         <v>57</v>
@@ -7036,8 +7036,8 @@
       <c r="AS54" s="13">
         <v>0</v>
       </c>
-      <c r="AT54" s="13" t="s">
-        <v>57</v>
+      <c r="AT54" s="13">
+        <v>0</v>
       </c>
       <c r="AU54" s="13">
         <v>0</v>
@@ -7049,22 +7049,22 @@
         <v>0</v>
       </c>
       <c r="AX54" s="13">
-        <v>0</v>
+        <v>443</v>
       </c>
       <c r="AY54" s="13">
         <v>0</v>
       </c>
       <c r="AZ54" s="13">
-        <v>443</v>
+        <v>0</v>
       </c>
       <c r="BA54" s="13">
         <v>0</v>
       </c>
-      <c r="BB54" s="13">
-        <v>0</v>
+      <c r="BB54" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>59</v>
       </c>
@@ -7147,45 +7147,45 @@
       <c r="AC55" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE55" s="11" t="s">
-        <v>57</v>
+      <c r="AD55" s="11">
+        <v>42775</v>
+      </c>
+      <c r="AE55" s="11">
+        <v>56061</v>
       </c>
       <c r="AF55" s="11">
-        <v>42775</v>
+        <v>14078</v>
       </c>
       <c r="AG55" s="11">
-        <v>56061</v>
+        <v>45922</v>
       </c>
       <c r="AH55" s="11">
-        <v>14078</v>
+        <v>47505</v>
       </c>
       <c r="AI55" s="11">
-        <v>45922</v>
+        <v>105997</v>
       </c>
       <c r="AJ55" s="11">
-        <v>47505</v>
+        <v>28139</v>
       </c>
       <c r="AK55" s="11">
-        <v>105997</v>
+        <v>63255</v>
       </c>
       <c r="AL55" s="11">
-        <v>28139</v>
+        <v>10835</v>
       </c>
       <c r="AM55" s="11">
-        <v>63255</v>
+        <v>133066</v>
       </c>
       <c r="AN55" s="11">
-        <v>10835</v>
-      </c>
-      <c r="AO55" s="11">
-        <v>133066</v>
-      </c>
-      <c r="AP55" s="11">
         <v>164929</v>
       </c>
+      <c r="AO55" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP55" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ55" s="11" t="s">
         <v>57</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>60</v>
       </c>
@@ -7234,48 +7234,48 @@
       <c r="E56" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>57</v>
+      <c r="F56" s="13">
+        <v>86010</v>
+      </c>
+      <c r="G56" s="13">
+        <v>56909</v>
       </c>
       <c r="H56" s="13">
-        <v>86010</v>
+        <v>11294</v>
       </c>
       <c r="I56" s="13">
-        <v>56909</v>
+        <v>99413</v>
       </c>
       <c r="J56" s="13">
-        <v>11294</v>
+        <v>61669</v>
       </c>
       <c r="K56" s="13">
-        <v>99413</v>
+        <v>39265</v>
       </c>
       <c r="L56" s="13">
-        <v>61669</v>
+        <v>21006</v>
       </c>
       <c r="M56" s="13">
-        <v>39265</v>
+        <v>37412</v>
       </c>
       <c r="N56" s="13">
-        <v>21006</v>
+        <v>36631</v>
       </c>
       <c r="O56" s="13">
-        <v>37412</v>
+        <v>22206</v>
       </c>
       <c r="P56" s="13">
-        <v>36631</v>
+        <v>22622</v>
       </c>
       <c r="Q56" s="13">
-        <v>22206</v>
-      </c>
-      <c r="R56" s="13">
-        <v>22622</v>
-      </c>
-      <c r="S56" s="13">
         <v>14770</v>
       </c>
+      <c r="R56" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S56" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T56" s="13" t="s">
         <v>57</v>
       </c>
@@ -7306,11 +7306,11 @@
       <c r="AC56" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE56" s="13" t="s">
-        <v>57</v>
+      <c r="AD56" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="13">
+        <v>0</v>
       </c>
       <c r="AF56" s="13">
         <v>0</v>
@@ -7339,11 +7339,11 @@
       <c r="AN56" s="13">
         <v>0</v>
       </c>
-      <c r="AO56" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP56" s="13">
-        <v>0</v>
+      <c r="AO56" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP56" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ56" s="13" t="s">
         <v>57</v>
@@ -7382,7 +7382,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>61</v>
       </c>
@@ -7429,81 +7429,81 @@
       <c r="Q57" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="R57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="S57" s="11" t="s">
-        <v>57</v>
+      <c r="R57" s="11">
+        <v>67149</v>
+      </c>
+      <c r="S57" s="11">
+        <v>84396</v>
       </c>
       <c r="T57" s="11">
-        <v>67149</v>
+        <v>82890</v>
       </c>
       <c r="U57" s="11">
-        <v>84396</v>
+        <v>74548</v>
       </c>
       <c r="V57" s="11">
-        <v>82890</v>
+        <v>127266</v>
       </c>
       <c r="W57" s="11">
-        <v>74548</v>
+        <v>177013</v>
       </c>
       <c r="X57" s="11">
-        <v>127266</v>
+        <v>129892</v>
       </c>
       <c r="Y57" s="11">
-        <v>177013</v>
+        <v>128964</v>
       </c>
       <c r="Z57" s="11">
-        <v>129892</v>
+        <v>172053</v>
       </c>
       <c r="AA57" s="11">
-        <v>128964</v>
+        <v>153203</v>
       </c>
       <c r="AB57" s="11">
-        <v>172053</v>
+        <v>133393</v>
       </c>
       <c r="AC57" s="11">
-        <v>153203</v>
+        <v>127034</v>
       </c>
       <c r="AD57" s="11">
-        <v>133393</v>
+        <v>175039</v>
       </c>
       <c r="AE57" s="11">
-        <v>127034</v>
+        <v>218869</v>
       </c>
       <c r="AF57" s="11">
-        <v>175039</v>
+        <v>178641</v>
       </c>
       <c r="AG57" s="11">
-        <v>218869</v>
+        <v>293114</v>
       </c>
       <c r="AH57" s="11">
-        <v>178641</v>
+        <v>274285</v>
       </c>
       <c r="AI57" s="11">
-        <v>293114</v>
+        <v>224004</v>
       </c>
       <c r="AJ57" s="11">
-        <v>274285</v>
+        <v>266713</v>
       </c>
       <c r="AK57" s="11">
-        <v>224004</v>
+        <v>197899</v>
       </c>
       <c r="AL57" s="11">
-        <v>266713</v>
+        <v>135034</v>
       </c>
       <c r="AM57" s="11">
-        <v>197899</v>
+        <v>67011</v>
       </c>
       <c r="AN57" s="11">
-        <v>135034</v>
-      </c>
-      <c r="AO57" s="11">
-        <v>67011</v>
-      </c>
-      <c r="AP57" s="11">
         <v>8148</v>
       </c>
+      <c r="AO57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP57" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ57" s="11" t="s">
         <v>57</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>62</v>
       </c>
@@ -7552,48 +7552,48 @@
       <c r="E58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F58" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>57</v>
+      <c r="F58" s="13">
+        <v>58209</v>
+      </c>
+      <c r="G58" s="13">
+        <v>74727</v>
       </c>
       <c r="H58" s="13">
-        <v>58209</v>
+        <v>44354</v>
       </c>
       <c r="I58" s="13">
-        <v>74727</v>
+        <v>87446</v>
       </c>
       <c r="J58" s="13">
-        <v>44354</v>
+        <v>62017</v>
       </c>
       <c r="K58" s="13">
-        <v>87446</v>
+        <v>87743</v>
       </c>
       <c r="L58" s="13">
-        <v>62017</v>
+        <v>90266</v>
       </c>
       <c r="M58" s="13">
-        <v>87743</v>
+        <v>94972</v>
       </c>
       <c r="N58" s="13">
-        <v>90266</v>
+        <v>103159</v>
       </c>
       <c r="O58" s="13">
-        <v>94972</v>
+        <v>104250</v>
       </c>
       <c r="P58" s="13">
-        <v>103159</v>
+        <v>83963</v>
       </c>
       <c r="Q58" s="13">
-        <v>104250</v>
-      </c>
-      <c r="R58" s="13">
-        <v>83963</v>
-      </c>
-      <c r="S58" s="13">
         <v>92729</v>
       </c>
+      <c r="R58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S58" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T58" s="13" t="s">
         <v>57</v>
       </c>
@@ -7660,14 +7660,14 @@
       <c r="AO58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP58" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ58" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR58" s="13">
-        <v>0</v>
+      <c r="AP58" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ58" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR58" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS58" s="13" t="s">
         <v>57</v>
@@ -7700,7 +7700,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>63</v>
       </c>
@@ -7709,14 +7709,14 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>63128</v>
-      </c>
-      <c r="F59" s="11">
-        <v>42417</v>
-      </c>
-      <c r="G59" s="11">
         <v>56865</v>
       </c>
+      <c r="F59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="H59" s="11" t="s">
         <v>57</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>64</v>
       </c>
@@ -7868,14 +7868,14 @@
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
-        <v>32101</v>
-      </c>
-      <c r="F60" s="13">
-        <v>33032</v>
-      </c>
-      <c r="G60" s="13">
         <v>72458</v>
       </c>
+      <c r="F60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="H60" s="13" t="s">
         <v>57</v>
       </c>
@@ -7906,48 +7906,48 @@
       <c r="Q60" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R60" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="S60" s="13" t="s">
-        <v>57</v>
+      <c r="R60" s="13">
+        <v>13661</v>
+      </c>
+      <c r="S60" s="13">
+        <v>2987</v>
       </c>
       <c r="T60" s="13">
-        <v>13661</v>
+        <v>3053</v>
       </c>
       <c r="U60" s="13">
-        <v>2987</v>
+        <v>30822</v>
       </c>
       <c r="V60" s="13">
-        <v>3053</v>
+        <v>33171</v>
       </c>
       <c r="W60" s="13">
-        <v>30822</v>
+        <v>43597</v>
       </c>
       <c r="X60" s="13">
-        <v>33171</v>
+        <v>53114</v>
       </c>
       <c r="Y60" s="13">
-        <v>43597</v>
+        <v>3919</v>
       </c>
       <c r="Z60" s="13">
-        <v>53114</v>
+        <v>1130</v>
       </c>
       <c r="AA60" s="13">
-        <v>3919</v>
+        <v>2142</v>
       </c>
       <c r="AB60" s="13">
-        <v>1130</v>
+        <v>40043</v>
       </c>
       <c r="AC60" s="13">
-        <v>2142</v>
-      </c>
-      <c r="AD60" s="13">
-        <v>40043</v>
-      </c>
-      <c r="AE60" s="13">
         <v>63863</v>
       </c>
+      <c r="AD60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE60" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AF60" s="13" t="s">
         <v>57</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>65</v>
       </c>
@@ -8122,62 +8122,62 @@
       <c r="AJ61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK61" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL61" s="11" t="s">
-        <v>57</v>
+      <c r="AK61" s="11">
+        <v>15457</v>
+      </c>
+      <c r="AL61" s="11">
+        <v>67191</v>
       </c>
       <c r="AM61" s="11">
-        <v>15457</v>
+        <v>121099</v>
       </c>
       <c r="AN61" s="11">
-        <v>67191</v>
+        <v>194307</v>
       </c>
       <c r="AO61" s="11">
-        <v>121099</v>
+        <v>168349</v>
       </c>
       <c r="AP61" s="11">
-        <v>194307</v>
+        <v>134985</v>
       </c>
       <c r="AQ61" s="11">
-        <v>168349</v>
+        <v>200820</v>
       </c>
       <c r="AR61" s="11">
-        <v>134985</v>
+        <v>194103</v>
       </c>
       <c r="AS61" s="11">
-        <v>198420</v>
+        <v>250593</v>
       </c>
       <c r="AT61" s="11">
-        <v>194103</v>
+        <v>265789</v>
       </c>
       <c r="AU61" s="11">
-        <v>250593</v>
+        <v>263522</v>
       </c>
       <c r="AV61" s="11">
-        <v>265789</v>
+        <v>263098</v>
       </c>
       <c r="AW61" s="11">
-        <v>263522</v>
+        <v>232455</v>
       </c>
       <c r="AX61" s="11">
-        <v>263098</v>
+        <v>236132</v>
       </c>
       <c r="AY61" s="11">
-        <v>232455</v>
+        <v>301492</v>
       </c>
       <c r="AZ61" s="11">
-        <v>235714</v>
+        <v>297689</v>
       </c>
       <c r="BA61" s="11">
-        <v>301492</v>
+        <v>260330</v>
       </c>
       <c r="BB61" s="11">
-        <v>297689</v>
+        <v>269304</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>66</v>
       </c>
@@ -8296,15 +8296,15 @@
       <c r="AO62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP62" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ62" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR62" s="13">
+      <c r="AP62" s="13">
         <v>292946</v>
       </c>
+      <c r="AQ62" s="13">
+        <v>67594</v>
+      </c>
+      <c r="AR62" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AS62" s="13" t="s">
         <v>57</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
         <v>76</v>
       </c>
@@ -8393,7 +8393,7 @@
       <c r="BA63" s="9"/>
       <c r="BB63" s="9"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>68</v>
       </c>
@@ -8509,14 +8509,14 @@
       <c r="AN64" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO64" s="11" t="s">
-        <v>57</v>
+      <c r="AO64" s="11">
+        <v>19000</v>
       </c>
       <c r="AP64" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ64" s="11">
-        <v>19000</v>
+      <c r="AQ64" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR64" s="11" t="s">
         <v>57</v>
@@ -8552,7 +8552,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
         <v>70</v>
       </c>
@@ -8635,11 +8635,11 @@
       <c r="AC65" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD65" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE65" s="15" t="s">
-        <v>57</v>
+      <c r="AD65" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="15">
+        <v>0</v>
       </c>
       <c r="AF65" s="15">
         <v>0</v>
@@ -8669,13 +8669,13 @@
         <v>0</v>
       </c>
       <c r="AO65" s="15">
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="AP65" s="15">
         <v>0</v>
       </c>
       <c r="AQ65" s="15">
-        <v>19000</v>
+        <v>0</v>
       </c>
       <c r="AR65" s="15">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="18" t="s">
         <v>77</v>
       </c>
@@ -8768,7 +8768,7 @@
       <c r="BA66" s="19"/>
       <c r="BB66" s="19"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="16" t="s">
         <v>74</v>
       </c>
@@ -8851,11 +8851,11 @@
       <c r="AC67" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AD67" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE67" s="17" t="s">
-        <v>57</v>
+      <c r="AD67" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="17">
+        <v>0</v>
       </c>
       <c r="AF67" s="17">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>78</v>
       </c>
@@ -8984,7 +8984,7 @@
       <c r="BA68" s="9"/>
       <c r="BB68" s="9"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>79</v>
       </c>
@@ -9067,11 +9067,11 @@
       <c r="AC69" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD69" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE69" s="11" t="s">
-        <v>57</v>
+      <c r="AD69" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="11">
+        <v>0</v>
       </c>
       <c r="AF69" s="11">
         <v>0</v>
@@ -9101,13 +9101,13 @@
         <v>0</v>
       </c>
       <c r="AO69" s="11">
-        <v>0</v>
+        <v>-3845</v>
       </c>
       <c r="AP69" s="11">
         <v>0</v>
       </c>
       <c r="AQ69" s="11">
-        <v>-3845</v>
+        <v>0</v>
       </c>
       <c r="AR69" s="11">
         <v>0</v>
@@ -9143,164 +9143,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="14" t="s">
         <v>71</v>
       </c>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15">
-        <v>95229</v>
+        <v>129323</v>
       </c>
       <c r="F70" s="15">
-        <v>75449</v>
+        <v>144219</v>
       </c>
       <c r="G70" s="15">
-        <v>129323</v>
+        <v>131636</v>
       </c>
       <c r="H70" s="15">
-        <v>144219</v>
+        <v>55648</v>
       </c>
       <c r="I70" s="15">
-        <v>131636</v>
+        <v>186859</v>
       </c>
       <c r="J70" s="15">
-        <v>55648</v>
+        <v>123686</v>
       </c>
       <c r="K70" s="15">
-        <v>186859</v>
+        <v>127008</v>
       </c>
       <c r="L70" s="15">
-        <v>123686</v>
+        <v>111272</v>
       </c>
       <c r="M70" s="15">
-        <v>127008</v>
+        <v>132384</v>
       </c>
       <c r="N70" s="15">
-        <v>111272</v>
+        <v>139790</v>
       </c>
       <c r="O70" s="15">
-        <v>132384</v>
+        <v>126456</v>
       </c>
       <c r="P70" s="15">
-        <v>139790</v>
+        <v>106585</v>
       </c>
       <c r="Q70" s="15">
-        <v>126456</v>
+        <v>107499</v>
       </c>
       <c r="R70" s="15">
-        <v>106585</v>
+        <v>80810</v>
       </c>
       <c r="S70" s="15">
-        <v>107499</v>
+        <v>87383</v>
       </c>
       <c r="T70" s="15">
-        <v>80810</v>
+        <v>85943</v>
       </c>
       <c r="U70" s="15">
-        <v>87383</v>
+        <v>105370</v>
       </c>
       <c r="V70" s="15">
-        <v>85943</v>
+        <v>160437</v>
       </c>
       <c r="W70" s="15">
-        <v>105370</v>
+        <v>220610</v>
       </c>
       <c r="X70" s="15">
-        <v>160437</v>
+        <v>183006</v>
       </c>
       <c r="Y70" s="15">
-        <v>220610</v>
+        <v>132883</v>
       </c>
       <c r="Z70" s="15">
-        <v>183006</v>
+        <v>173183</v>
       </c>
       <c r="AA70" s="15">
-        <v>132883</v>
+        <v>155345</v>
       </c>
       <c r="AB70" s="15">
-        <v>173183</v>
+        <v>173436</v>
       </c>
       <c r="AC70" s="15">
-        <v>155345</v>
+        <v>190897</v>
       </c>
       <c r="AD70" s="15">
-        <v>173436</v>
+        <v>217814</v>
       </c>
       <c r="AE70" s="15">
-        <v>190897</v>
+        <v>274930</v>
       </c>
       <c r="AF70" s="15">
-        <v>217814</v>
+        <v>192719</v>
       </c>
       <c r="AG70" s="15">
-        <v>274930</v>
+        <v>339036</v>
       </c>
       <c r="AH70" s="15">
-        <v>192719</v>
+        <v>321790</v>
       </c>
       <c r="AI70" s="15">
-        <v>339036</v>
+        <v>330001</v>
       </c>
       <c r="AJ70" s="15">
-        <v>321790</v>
+        <v>294852</v>
       </c>
       <c r="AK70" s="15">
-        <v>330001</v>
+        <v>276611</v>
       </c>
       <c r="AL70" s="15">
-        <v>294852</v>
+        <v>213060</v>
       </c>
       <c r="AM70" s="15">
-        <v>276611</v>
+        <v>321176</v>
       </c>
       <c r="AN70" s="15">
-        <v>213060</v>
+        <v>367384</v>
       </c>
       <c r="AO70" s="15">
-        <v>321176</v>
+        <v>414809</v>
       </c>
       <c r="AP70" s="15">
-        <v>367384</v>
+        <v>427931</v>
       </c>
       <c r="AQ70" s="15">
-        <v>414809</v>
+        <v>268414</v>
       </c>
       <c r="AR70" s="15">
-        <v>427931</v>
+        <v>431050</v>
       </c>
       <c r="AS70" s="15">
-        <v>271048</v>
+        <v>486317</v>
       </c>
       <c r="AT70" s="15">
-        <v>431050</v>
+        <v>711929</v>
       </c>
       <c r="AU70" s="15">
-        <v>486317</v>
+        <v>717744</v>
       </c>
       <c r="AV70" s="15">
-        <v>712094</v>
+        <v>528757</v>
       </c>
       <c r="AW70" s="15">
-        <v>717744</v>
+        <v>376924</v>
       </c>
       <c r="AX70" s="15">
-        <v>528757</v>
+        <v>546447</v>
       </c>
       <c r="AY70" s="15">
-        <v>376924</v>
+        <v>635975</v>
       </c>
       <c r="AZ70" s="15">
-        <v>546029</v>
+        <v>749931</v>
       </c>
       <c r="BA70" s="15">
-        <v>635975</v>
+        <v>388289</v>
       </c>
       <c r="BB70" s="15">
-        <v>749931</v>
+        <v>649353</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -9355,7 +9355,7 @@
       <c r="BA71" s="1"/>
       <c r="BB71" s="1"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -9410,7 +9410,7 @@
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -9465,7 +9465,7 @@
       <c r="BA73" s="1"/>
       <c r="BB73" s="1"/>
     </row>
-    <row r="74" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
         <v>80</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -9677,7 +9677,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>81</v>
       </c>
@@ -9734,7 +9734,7 @@
       <c r="BA76" s="9"/>
       <c r="BB76" s="9"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>55</v>
       </c>
@@ -9754,11 +9754,11 @@
       <c r="H77" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I77" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J77" s="11" t="s">
-        <v>57</v>
+      <c r="I77" s="11">
+        <v>0</v>
+      </c>
+      <c r="J77" s="11">
+        <v>0</v>
       </c>
       <c r="K77" s="11">
         <v>0</v>
@@ -9781,11 +9781,11 @@
       <c r="Q77" s="11">
         <v>0</v>
       </c>
-      <c r="R77" s="11">
-        <v>0</v>
-      </c>
-      <c r="S77" s="11">
-        <v>0</v>
+      <c r="R77" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S77" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="T77" s="11" t="s">
         <v>57</v>
@@ -9850,50 +9850,50 @@
       <c r="AN77" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO77" s="11" t="s">
-        <v>57</v>
+      <c r="AO77" s="11">
+        <v>4498314</v>
       </c>
       <c r="AP77" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ77" s="11">
-        <v>4498314</v>
-      </c>
-      <c r="AR77" s="11" t="s">
-        <v>57</v>
+      <c r="AQ77" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR77" s="11">
+        <v>5363461</v>
       </c>
       <c r="AS77" s="11">
-        <v>3958763</v>
+        <v>6074421</v>
       </c>
       <c r="AT77" s="11">
-        <v>5363461</v>
+        <v>6212253</v>
       </c>
       <c r="AU77" s="11">
-        <v>6074421</v>
+        <v>6838221</v>
       </c>
       <c r="AV77" s="11">
-        <v>6212977</v>
+        <v>7023774</v>
       </c>
       <c r="AW77" s="11">
-        <v>6838221</v>
+        <v>6397246</v>
       </c>
       <c r="AX77" s="11">
-        <v>7023774</v>
+        <v>7307612</v>
       </c>
       <c r="AY77" s="11">
-        <v>6397246</v>
+        <v>8380722</v>
       </c>
       <c r="AZ77" s="11">
-        <v>7307612</v>
+        <v>8745469</v>
       </c>
       <c r="BA77" s="11">
-        <v>8380722</v>
+        <v>7316960</v>
       </c>
       <c r="BB77" s="11">
-        <v>8745469</v>
+        <v>9900719</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>58</v>
       </c>
@@ -10009,14 +10009,14 @@
       <c r="AN78" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO78" s="13" t="s">
-        <v>57</v>
+      <c r="AO78" s="13">
+        <v>11627723</v>
       </c>
       <c r="AP78" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ78" s="13">
-        <v>11627723</v>
+      <c r="AQ78" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AR78" s="13" t="s">
         <v>57</v>
@@ -10036,23 +10036,23 @@
       <c r="AW78" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AX78" s="13" t="s">
-        <v>57</v>
+      <c r="AX78" s="13">
+        <v>9425532</v>
       </c>
       <c r="AY78" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AZ78" s="13">
-        <v>9425532</v>
-      </c>
-      <c r="BA78" s="13">
-        <v>0</v>
+      <c r="AZ78" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA78" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="BB78" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>59</v>
       </c>
@@ -10135,45 +10135,45 @@
       <c r="AC79" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD79" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE79" s="11" t="s">
-        <v>57</v>
+      <c r="AD79" s="11">
+        <v>2366955</v>
+      </c>
+      <c r="AE79" s="11">
+        <v>2555052</v>
       </c>
       <c r="AF79" s="11">
-        <v>2366955</v>
+        <v>2789933</v>
       </c>
       <c r="AG79" s="11">
-        <v>2555052</v>
+        <v>2653770</v>
       </c>
       <c r="AH79" s="11">
-        <v>2789933</v>
+        <v>2615482</v>
       </c>
       <c r="AI79" s="11">
-        <v>2653770</v>
+        <v>3625812</v>
       </c>
       <c r="AJ79" s="11">
-        <v>2615482</v>
+        <v>3987388</v>
       </c>
       <c r="AK79" s="11">
-        <v>3625812</v>
+        <v>4479026</v>
       </c>
       <c r="AL79" s="11">
-        <v>3987388</v>
+        <v>3973231</v>
       </c>
       <c r="AM79" s="11">
-        <v>4479026</v>
+        <v>4285125</v>
       </c>
       <c r="AN79" s="11">
-        <v>3973231</v>
-      </c>
-      <c r="AO79" s="11">
-        <v>4285125</v>
-      </c>
-      <c r="AP79" s="11">
         <v>4868465</v>
       </c>
+      <c r="AO79" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP79" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ79" s="11" t="s">
         <v>57</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
         <v>60</v>
       </c>
@@ -10222,48 +10222,48 @@
       <c r="E80" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F80" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G80" s="13" t="s">
-        <v>57</v>
+      <c r="F80" s="13">
+        <v>1537733</v>
+      </c>
+      <c r="G80" s="13">
+        <v>2471296</v>
       </c>
       <c r="H80" s="13">
-        <v>1537733</v>
+        <v>2105911</v>
       </c>
       <c r="I80" s="13">
-        <v>2471296</v>
+        <v>1985242</v>
       </c>
       <c r="J80" s="13">
-        <v>2105911</v>
+        <v>1930716</v>
       </c>
       <c r="K80" s="13">
-        <v>1985242</v>
+        <v>2354440</v>
       </c>
       <c r="L80" s="13">
-        <v>1930716</v>
+        <v>2187669</v>
       </c>
       <c r="M80" s="13">
-        <v>2354440</v>
+        <v>2219902</v>
       </c>
       <c r="N80" s="13">
-        <v>2187669</v>
+        <v>2260057</v>
       </c>
       <c r="O80" s="13">
-        <v>2219902</v>
+        <v>2688703</v>
       </c>
       <c r="P80" s="13">
-        <v>2260057</v>
+        <v>2111049</v>
       </c>
       <c r="Q80" s="13">
-        <v>2688703</v>
-      </c>
-      <c r="R80" s="13">
-        <v>2111049</v>
-      </c>
-      <c r="S80" s="13">
         <v>1682232</v>
       </c>
+      <c r="R80" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S80" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T80" s="13" t="s">
         <v>57</v>
       </c>
@@ -10370,7 +10370,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>61</v>
       </c>
@@ -10417,81 +10417,81 @@
       <c r="Q81" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="R81" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="S81" s="11" t="s">
-        <v>57</v>
+      <c r="R81" s="11">
+        <v>1775161</v>
+      </c>
+      <c r="S81" s="11">
+        <v>1775823</v>
       </c>
       <c r="T81" s="11">
-        <v>1775161</v>
+        <v>1799609</v>
       </c>
       <c r="U81" s="11">
-        <v>1775823</v>
+        <v>1768594</v>
       </c>
       <c r="V81" s="11">
-        <v>1799609</v>
+        <v>1846147</v>
       </c>
       <c r="W81" s="11">
-        <v>1768594</v>
+        <v>2058722</v>
       </c>
       <c r="X81" s="11">
-        <v>1846147</v>
+        <v>2218139</v>
       </c>
       <c r="Y81" s="11">
-        <v>2058722</v>
+        <v>2309734</v>
       </c>
       <c r="Z81" s="11">
-        <v>2218139</v>
+        <v>2487286</v>
       </c>
       <c r="AA81" s="11">
-        <v>2309734</v>
+        <v>2586359</v>
       </c>
       <c r="AB81" s="11">
-        <v>2487286</v>
+        <v>2648158</v>
       </c>
       <c r="AC81" s="11">
-        <v>2586359</v>
+        <v>2661345</v>
       </c>
       <c r="AD81" s="11">
-        <v>2648158</v>
+        <v>2733691</v>
       </c>
       <c r="AE81" s="11">
-        <v>2661345</v>
+        <v>2840968</v>
       </c>
       <c r="AF81" s="11">
-        <v>2733691</v>
+        <v>2970814</v>
       </c>
       <c r="AG81" s="11">
-        <v>2840968</v>
+        <v>3927773</v>
       </c>
       <c r="AH81" s="11">
-        <v>2970814</v>
+        <v>3867363</v>
       </c>
       <c r="AI81" s="11">
-        <v>3927773</v>
+        <v>3931861</v>
       </c>
       <c r="AJ81" s="11">
-        <v>3867363</v>
+        <v>4123705</v>
       </c>
       <c r="AK81" s="11">
-        <v>3931861</v>
+        <v>4046844</v>
       </c>
       <c r="AL81" s="11">
-        <v>4123705</v>
+        <v>4375413</v>
       </c>
       <c r="AM81" s="11">
-        <v>4046844</v>
+        <v>4157583</v>
       </c>
       <c r="AN81" s="11">
-        <v>4375413</v>
-      </c>
-      <c r="AO81" s="11">
-        <v>4157583</v>
-      </c>
-      <c r="AP81" s="11">
         <v>3548780</v>
       </c>
+      <c r="AO81" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP81" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ81" s="11" t="s">
         <v>57</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>62</v>
       </c>
@@ -10540,48 +10540,48 @@
       <c r="E82" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F82" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>57</v>
+      <c r="F82" s="13">
+        <v>1172741</v>
+      </c>
+      <c r="G82" s="13">
+        <v>1241725</v>
       </c>
       <c r="H82" s="13">
-        <v>1172741</v>
+        <v>1270597</v>
       </c>
       <c r="I82" s="13">
-        <v>1241725</v>
+        <v>1287713</v>
       </c>
       <c r="J82" s="13">
-        <v>1270597</v>
+        <v>1267982</v>
       </c>
       <c r="K82" s="13">
-        <v>1287713</v>
+        <v>1664005</v>
       </c>
       <c r="L82" s="13">
-        <v>1267982</v>
+        <v>1886121</v>
       </c>
       <c r="M82" s="13">
-        <v>1664005</v>
+        <v>1916535</v>
       </c>
       <c r="N82" s="13">
-        <v>1886121</v>
+        <v>1905905</v>
       </c>
       <c r="O82" s="13">
-        <v>1916535</v>
+        <v>1828819</v>
       </c>
       <c r="P82" s="13">
-        <v>1905905</v>
+        <v>1864394</v>
       </c>
       <c r="Q82" s="13">
-        <v>1828819</v>
-      </c>
-      <c r="R82" s="13">
-        <v>1864394</v>
-      </c>
-      <c r="S82" s="13">
         <v>1595914</v>
       </c>
+      <c r="R82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S82" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T82" s="13" t="s">
         <v>57</v>
       </c>
@@ -10688,7 +10688,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>63</v>
       </c>
@@ -10697,14 +10697,14 @@
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11">
-        <v>1400635</v>
-      </c>
-      <c r="F83" s="11">
-        <v>1311636</v>
-      </c>
-      <c r="G83" s="11">
         <v>1134260</v>
       </c>
+      <c r="F83" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="H83" s="11" t="s">
         <v>57</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
         <v>64</v>
       </c>
@@ -10856,14 +10856,14 @@
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13">
-        <v>1591601</v>
-      </c>
-      <c r="F84" s="13">
-        <v>1591367</v>
-      </c>
-      <c r="G84" s="13">
         <v>1875353</v>
       </c>
+      <c r="F84" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="H84" s="13" t="s">
         <v>57</v>
       </c>
@@ -10894,48 +10894,48 @@
       <c r="Q84" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R84" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="S84" s="13" t="s">
-        <v>57</v>
+      <c r="R84" s="13">
+        <v>2550597</v>
+      </c>
+      <c r="S84" s="13">
+        <v>1987359</v>
       </c>
       <c r="T84" s="13">
-        <v>2550597</v>
+        <v>2798350</v>
       </c>
       <c r="U84" s="13">
-        <v>1987359</v>
+        <v>2258684</v>
       </c>
       <c r="V84" s="13">
-        <v>2798350</v>
+        <v>1746486</v>
       </c>
       <c r="W84" s="13">
-        <v>2258684</v>
+        <v>1949428</v>
       </c>
       <c r="X84" s="13">
-        <v>1746486</v>
+        <v>2152369</v>
       </c>
       <c r="Y84" s="13">
-        <v>1949428</v>
+        <v>2044340</v>
       </c>
       <c r="Z84" s="13">
-        <v>2152369</v>
+        <v>2378947</v>
       </c>
       <c r="AA84" s="13">
-        <v>2044340</v>
+        <v>2459242</v>
       </c>
       <c r="AB84" s="13">
-        <v>2378947</v>
+        <v>2701410</v>
       </c>
       <c r="AC84" s="13">
-        <v>2459242</v>
-      </c>
-      <c r="AD84" s="13">
-        <v>2701410</v>
-      </c>
-      <c r="AE84" s="13">
         <v>2600920</v>
       </c>
+      <c r="AD84" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE84" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AF84" s="13" t="s">
         <v>57</v>
       </c>
@@ -11006,7 +11006,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>65</v>
       </c>
@@ -11110,62 +11110,62 @@
       <c r="AJ85" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK85" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL85" s="11" t="s">
-        <v>57</v>
+      <c r="AK85" s="11">
+        <v>4711667</v>
+      </c>
+      <c r="AL85" s="11">
+        <v>4436514</v>
       </c>
       <c r="AM85" s="11">
-        <v>4711667</v>
+        <v>4349253</v>
       </c>
       <c r="AN85" s="11">
-        <v>4436514</v>
+        <v>4353675</v>
       </c>
       <c r="AO85" s="11">
-        <v>4349253</v>
+        <v>4285762</v>
       </c>
       <c r="AP85" s="11">
-        <v>4353675</v>
+        <v>4581665</v>
       </c>
       <c r="AQ85" s="11">
-        <v>4285762</v>
+        <v>4955093</v>
       </c>
       <c r="AR85" s="11">
-        <v>4581665</v>
+        <v>5240928</v>
       </c>
       <c r="AS85" s="11">
-        <v>4963447</v>
+        <v>5186221</v>
       </c>
       <c r="AT85" s="11">
-        <v>5240928</v>
+        <v>5346979</v>
       </c>
       <c r="AU85" s="11">
-        <v>5186221</v>
+        <v>5575887</v>
       </c>
       <c r="AV85" s="11">
-        <v>5346979</v>
+        <v>5411245</v>
       </c>
       <c r="AW85" s="11">
-        <v>5575887</v>
+        <v>5550369</v>
       </c>
       <c r="AX85" s="11">
-        <v>5411245</v>
+        <v>5316971</v>
       </c>
       <c r="AY85" s="11">
-        <v>5550369</v>
+        <v>5366441</v>
       </c>
       <c r="AZ85" s="11">
-        <v>5315890</v>
+        <v>5523909</v>
       </c>
       <c r="BA85" s="11">
-        <v>5366441</v>
+        <v>5462576</v>
       </c>
       <c r="BB85" s="11">
-        <v>5523909</v>
+        <v>5465771</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>66</v>
       </c>
@@ -11284,15 +11284,15 @@
       <c r="AO86" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP86" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ86" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR86" s="13">
+      <c r="AP86" s="13">
         <v>5246825</v>
       </c>
+      <c r="AQ86" s="13">
+        <v>3871363</v>
+      </c>
+      <c r="AR86" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AS86" s="13" t="s">
         <v>57</v>
       </c>
@@ -11324,7 +11324,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
         <v>83</v>
       </c>
@@ -11381,7 +11381,7 @@
       <c r="BA87" s="9"/>
       <c r="BB87" s="9"/>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
         <v>68</v>
       </c>
@@ -11497,14 +11497,14 @@
       <c r="AN88" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO88" s="11" t="s">
-        <v>57</v>
+      <c r="AO88" s="11">
+        <v>0</v>
       </c>
       <c r="AP88" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ88" s="11">
-        <v>0</v>
+      <c r="AQ88" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR88" s="11" t="s">
         <v>57</v>
